--- a/resources/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/resources/templates/NOMADS_PCR_Worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\templates\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFDD3A5-FC77-4B57-BF22-9972840BD15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0131FD5-538A-4274-ABB2-4C803BE44215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
@@ -29,9 +29,9 @@
     <definedName name="exp_notes">Assay!$C$16</definedName>
     <definedName name="exp_rxns">Assay!$C$15</definedName>
     <definedName name="exp_summary">Assay!$C$9</definedName>
-    <definedName name="exp_type">reference!$B$7</definedName>
+    <definedName name="exp_type">reference!$B$6</definedName>
     <definedName name="exp_user">Assay!$C$3</definedName>
-    <definedName name="exp_version">reference!$B$8</definedName>
+    <definedName name="exp_version">reference!$B$7</definedName>
     <definedName name="pcr_primers">Assay!$C$13</definedName>
     <definedName name="pcr_primersource">Assay!$C$14</definedName>
     <definedName name="pcr_targetpanel">Assay!$C$12</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="238">
   <si>
     <t>Assumptions</t>
   </si>
@@ -596,19 +596,7 @@
     <t>User</t>
   </si>
   <si>
-    <t>Brenda Mambwe</t>
-  </si>
-  <si>
-    <t>Mulenga Mwenda</t>
-  </si>
-  <si>
     <t>Initials</t>
-  </si>
-  <si>
-    <t>BM</t>
-  </si>
-  <si>
-    <t>MM</t>
   </si>
   <si>
     <t>Exp ID:</t>
@@ -757,9 +745,6 @@
   </si>
   <si>
     <t>Contains experiment level metadata for export</t>
-  </si>
-  <si>
-    <t>contains look-up tables, assumptions etc</t>
   </si>
   <si>
     <t>sample_id</t>
@@ -896,18 +881,6 @@
     <t>(e.g. A, B, C etc)</t>
   </si>
   <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>TES2022</t>
-  </si>
-  <si>
-    <t>GenE8</t>
-  </si>
-  <si>
-    <t>TES2023</t>
-  </si>
-  <si>
     <t>(target panel)</t>
   </si>
   <si>
@@ -945,6 +918,46 @@
       </rPr>
       <t xml:space="preserve"> script in this repository:</t>
     </r>
+  </si>
+  <si>
+    <t>User-defined</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Fiona Waiting</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>Terence Broad</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>NB. The entries above are used for dropdown options in other tabs. To add additional entries and maintain the dropdowns, do the following:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Right click on the highlighted cells and select 'insert'
+</t>
+  </si>
+  <si>
+    <t>3. Select 'Shift cells down'</t>
+  </si>
+  <si>
+    <t>4. Enter the new details into the new row</t>
+  </si>
+  <si>
+    <t>contains look-up tables, assumptions etc. Edit the entries in green according to your needs</t>
+  </si>
+  <si>
+    <t>1. Select a complete entry i.e. for names you would highlight two cells e.g. I5 and J5</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1109,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1160,6 +1173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,7 +1346,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1484,6 +1503,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2528,7 +2552,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C11" sqref="C11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2537,263 +2561,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="A1" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="71" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="K2" s="63" t="s">
+      <c r="H2" s="74"/>
+      <c r="K2" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="L2" s="63"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K3" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="61"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+      <c r="A4" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="65"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="78" t="str">
-        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",_xlfn.CONCAT("PC",VLOOKUP(C3,reference!E7:F8,2,FALSE),C4))</f>
-        <v/>
-      </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="A5" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="81" t="str">
+        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",_xlfn.CONCAT("PC",VLOOKUP(C3,reference!I3:J5,2,FALSE),C4))</f>
+        <v/>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="K5" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="L5" s="71"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="82" t="str">
+        <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",_xlfn.CONCAT(C2,"_PCR_",C5))</f>
+        <v/>
+      </c>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="37"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="89" t="str">
+        <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",_xlfn.CONCAT(C7,"_Batch",C8))</f>
+        <v/>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95" t="str">
+        <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",_xlfn.CONCAT(C6,"_",exp_summary,".xlsm"))</f>
+        <v/>
+      </c>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="84" t="str">
+        <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="84" t="str">
+        <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="L5" s="68"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="79" t="str">
-        <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",_xlfn.CONCAT(C2,"_PCR_",C5))</f>
-        <v/>
-      </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="37"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="86" t="str">
-        <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",_xlfn.CONCAT(C7,"_Batch",C8))</f>
-        <v/>
-      </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92" t="str">
-        <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",_xlfn.CONCAT(C6,"_",exp_summary,".xlsm"))</f>
-        <v/>
-      </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="81" t="str">
-        <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="81" t="str">
-        <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="21" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
+      <c r="A14" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="76"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="21" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
+      <c r="A16" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="76"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -2806,7 +2830,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="18" t="s">
@@ -2819,25 +2843,25 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="94" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94" t="str">
+      <c r="E20" s="97"/>
+      <c r="F20" s="97" t="str">
         <f>_xlfn.CONCAT("MM x",exp_rxns, " (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G20" s="94"/>
+      <c r="G20" s="97"/>
       <c r="H20" s="9"/>
-      <c r="J20" s="82" t="s">
+      <c r="J20" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="82"/>
+      <c r="K20" s="85"/>
       <c r="L20" s="13" t="s">
         <v>17</v>
       </c>
@@ -2846,156 +2870,156 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="66">
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="69">
         <v>2</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="95" t="s">
+      <c r="E21" s="69"/>
+      <c r="F21" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="95"/>
+      <c r="G21" s="98"/>
       <c r="H21" s="9"/>
-      <c r="J21" s="64">
+      <c r="J21" s="67">
         <v>93</v>
       </c>
-      <c r="K21" s="64"/>
+      <c r="K21" s="67"/>
       <c r="L21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90">
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93">
         <v>5</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="89">
+      <c r="E22" s="93"/>
+      <c r="F22" s="92">
         <f>SUM(D22*exp_rxns*(1+$D$19))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="89"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="9"/>
-      <c r="J22" s="65">
+      <c r="J22" s="68">
         <v>98</v>
       </c>
-      <c r="K22" s="65"/>
+      <c r="K22" s="68"/>
       <c r="L22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="69" t="s">
+      <c r="M22" s="72" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90">
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93">
         <v>0.75</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="89">
+      <c r="E23" s="93"/>
+      <c r="F23" s="92">
         <f>SUM(D23*exp_rxns*(1+$D$19))</f>
         <v>0</v>
       </c>
-      <c r="G23" s="89"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="9"/>
-      <c r="J23" s="66">
+      <c r="J23" s="69">
         <v>50</v>
       </c>
-      <c r="K23" s="66"/>
+      <c r="K23" s="69"/>
       <c r="L23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="69"/>
+      <c r="M23" s="72"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90">
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93">
         <v>0.5</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="89">
+      <c r="E24" s="93"/>
+      <c r="F24" s="92">
         <f>SUM(D24*exp_rxns*(1+$D$19))</f>
         <v>0</v>
       </c>
-      <c r="G24" s="89"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="9"/>
-      <c r="J24" s="67">
+      <c r="J24" s="70">
         <v>60</v>
       </c>
-      <c r="K24" s="67"/>
+      <c r="K24" s="70"/>
       <c r="L24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="69"/>
+      <c r="M24" s="72"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90">
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93">
         <v>1.5</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="89">
+      <c r="E25" s="93"/>
+      <c r="F25" s="92">
         <f>SUM(D25*exp_rxns*(1+$D$19))</f>
         <v>0</v>
       </c>
-      <c r="G25" s="89"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="9"/>
-      <c r="J25" s="66">
+      <c r="J25" s="69">
         <v>60</v>
       </c>
-      <c r="K25" s="66"/>
+      <c r="K25" s="69"/>
       <c r="L25" s="11" t="s">
         <v>22</v>
       </c>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90">
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93">
         <v>15.25</v>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="89">
+      <c r="E26" s="93"/>
+      <c r="F26" s="92">
         <f>SUM(D26*exp_rxns*(1+$D$19))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="89"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="9"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D27" s="88">
+      <c r="D27" s="91">
         <f>SUM(D21:D26)</f>
         <v>25</v>
       </c>
-      <c r="E27" s="88"/>
+      <c r="E27" s="91"/>
       <c r="F27" s="15" t="str">
         <f>_xlfn.CONCAT("Add ",SUM(D22:D26)," µl of MM to each well")</f>
         <v>Add 23 µl of MM to each well</v>
@@ -3005,7 +3029,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -3014,22 +3038,22 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="K28" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
+      <c r="K28" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3043,11 +3067,11 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="9"/>
-      <c r="K30" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
+      <c r="K30" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
@@ -3636,17 +3660,17 @@
           </x14:formula1>
           <xm:sqref>C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E7C7338-D4B5-4229-8F49-1913883BAA1F}">
-          <x14:formula1>
-            <xm:f>reference!$E$7:$E$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACDC75C9-791B-4E82-A9A3-D2BDFD36107F}">
           <x14:formula1>
             <xm:f>reference!$E$11:$E$14</xm:f>
           </x14:formula1>
           <xm:sqref>C7:F7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E7C7338-D4B5-4229-8F49-1913883BAA1F}">
+          <x14:formula1>
+            <xm:f>reference!$I$3:$I$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3676,20 +3700,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="97"/>
+      <c r="D1" s="100"/>
       <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="103"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -3705,19 +3729,19 @@
         <v>24</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>138</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>40</v>
@@ -5984,7 +6008,7 @@
         <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -6003,7 +6027,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6019,20 +6043,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6040,15 +6064,15 @@
         <v>27</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6057,56 +6081,56 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -6122,7 +6146,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6131,8 +6155,8 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.875" customWidth="1"/>
+    <col min="9" max="9" width="32.875" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -6145,6 +6169,9 @@
         <v>30</v>
       </c>
       <c r="F1" s="5"/>
+      <c r="I1" s="6" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
@@ -6161,6 +6188,12 @@
       <c r="G2" s="48" t="s">
         <v>147</v>
       </c>
+      <c r="I2" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
@@ -6173,6 +6206,12 @@
       <c r="G3" s="50" t="s">
         <v>150</v>
       </c>
+      <c r="I3" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
@@ -6185,74 +6224,71 @@
       <c r="G4" s="52" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I4" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="E6" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>159</v>
+      <c r="I5" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" t="s">
-        <v>160</v>
+        <v>179</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="39" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>225</v>
+      <c r="I8" s="61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="61" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>226</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>227</v>
-      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6285,40 +6321,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" t="s">
         <v>181</v>
       </c>
-      <c r="D1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" t="s">
-        <v>185</v>
-      </c>
       <c r="F1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6401,22 +6437,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" t="s">
         <v>199</v>
-      </c>
-      <c r="B1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/resources/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/resources/templates/NOMADS_PCR_Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0131FD5-538A-4274-ABB2-4C803BE44215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6709D55-41B9-4D84-9DBD-15522594CA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="241">
   <si>
     <t>Assumptions</t>
   </si>
@@ -839,9 +839,6 @@
     </r>
   </si>
   <si>
-    <t>3. Export all experimental metadata to a csv file for nomadic pipeline ingestion by clicking button below:</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -958,6 +955,18 @@
   </si>
   <si>
     <t>1. Select a complete entry i.e. for names you would highlight two cells e.g. I5 and J5</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>CoRE</t>
+  </si>
+  <si>
+    <t>ProACT</t>
+  </si>
+  <si>
+    <t>MIS2024</t>
   </si>
 </sst>
 </file>
@@ -2645,7 +2654,7 @@
         <v>172</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L5" s="71"/>
     </row>
@@ -2667,7 +2676,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="88"/>
@@ -2680,7 +2689,7 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="88"/>
@@ -2688,12 +2697,12 @@
       <c r="E8" s="88"/>
       <c r="F8" s="88"/>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="94" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="94"/>
       <c r="C9" s="89" t="str">
@@ -2704,16 +2713,16 @@
       <c r="E9" s="89"/>
       <c r="F9" s="89"/>
       <c r="G9" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="94"/>
       <c r="C10" s="95" t="str">
-        <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",_xlfn.CONCAT(C6,"_",exp_summary,".xlsm"))</f>
+        <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",_xlfn.CONCAT(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
       <c r="D10" s="95"/>
@@ -2748,7 +2757,7 @@
       <c r="E12" s="84"/>
       <c r="F12" s="84"/>
       <c r="G12" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2764,12 +2773,12 @@
       <c r="E13" s="84"/>
       <c r="F13" s="84"/>
       <c r="G13" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="76"/>
       <c r="C14" s="88"/>
@@ -2777,7 +2786,7 @@
       <c r="E14" s="88"/>
       <c r="F14" s="88"/>
       <c r="G14" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2793,7 +2802,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B16" s="76"/>
       <c r="C16" s="87"/>
@@ -3662,7 +3671,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACDC75C9-791B-4E82-A9A3-D2BDFD36107F}">
           <x14:formula1>
-            <xm:f>reference!$E$11:$E$14</xm:f>
+            <xm:f>reference!$L$3:$L$5</xm:f>
           </x14:formula1>
           <xm:sqref>C7:F7</xm:sqref>
         </x14:dataValidation>
@@ -3687,7 +3696,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C98"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6008,7 +6017,7 @@
         <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6024,10 +6033,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6089,12 +6098,12 @@
         <v>191</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>193</v>
@@ -6123,14 +6132,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>224</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6146,7 +6150,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L2" sqref="L2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6170,7 +6174,7 @@
       </c>
       <c r="F1" s="5"/>
       <c r="I1" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6194,6 +6198,9 @@
       <c r="J2" s="59" t="s">
         <v>157</v>
       </c>
+      <c r="L2" s="59" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
@@ -6207,10 +6214,13 @@
         <v>150</v>
       </c>
       <c r="I3" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="J3" s="60" t="s">
-        <v>227</v>
+      <c r="L3" s="60" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6225,10 +6235,13 @@
         <v>153</v>
       </c>
       <c r="I4" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="J4" s="60" t="s">
-        <v>229</v>
+      <c r="L4" s="60" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6239,10 +6252,13 @@
       <c r="C5" s="39"/>
       <c r="D5" s="7"/>
       <c r="I5" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="J5" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="J5" s="60" t="s">
-        <v>231</v>
+      <c r="L5" s="60" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6253,7 +6269,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6264,22 +6280,22 @@
         <v>2</v>
       </c>
       <c r="I7" s="61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I8" s="61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I9" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I10" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6339,19 +6355,19 @@
         <v>198</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" t="s">
         <v>213</v>
-      </c>
-      <c r="I1" t="s">
-        <v>214</v>
       </c>
       <c r="J1" t="s">
         <v>183</v>
       </c>
       <c r="K1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L1" t="s">
         <v>184</v>

--- a/resources/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/resources/templates/NOMADS_PCR_Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6709D55-41B9-4D84-9DBD-15522594CA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1F2D59-36A1-46C7-B2A6-5D390FC779D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -32,11 +32,13 @@
     <definedName name="exp_type">reference!$B$6</definedName>
     <definedName name="exp_user">Assay!$C$3</definedName>
     <definedName name="exp_version">reference!$B$7</definedName>
+    <definedName name="pcr_dna_source">Assay!$H$19</definedName>
+    <definedName name="pcr_enzyme">Assay!$A$22</definedName>
     <definedName name="pcr_primers">Assay!$C$13</definedName>
     <definedName name="pcr_primersource">Assay!$C$14</definedName>
     <definedName name="pcr_targetpanel">Assay!$C$12</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="258">
   <si>
     <t>Assumptions</t>
   </si>
@@ -108,9 +110,6 @@
     </r>
   </si>
   <si>
-    <t>10mM dNTPs</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -120,12 +119,6 @@
     <t>x30</t>
   </si>
   <si>
-    <t>5x Buffer</t>
-  </si>
-  <si>
-    <t>KAPA Polymerase (1U/ul)</t>
-  </si>
-  <si>
     <t>Primer pool (10 μM)</t>
   </si>
   <si>
@@ -154,9 +147,6 @@
   </si>
   <si>
     <t>Extraction ID</t>
-  </si>
-  <si>
-    <t>SWGA Product</t>
   </si>
   <si>
     <t>Description</t>
@@ -960,13 +950,76 @@
     <t>Project</t>
   </si>
   <si>
-    <t>CoRE</t>
-  </si>
-  <si>
-    <t>ProACT</t>
-  </si>
-  <si>
-    <t>MIS2024</t>
+    <t>NOMADS_MVP</t>
+  </si>
+  <si>
+    <t>N003</t>
+  </si>
+  <si>
+    <t>Pf-03-9</t>
+  </si>
+  <si>
+    <t>pcr_enzyme</t>
+  </si>
+  <si>
+    <t>KAPA</t>
+  </si>
+  <si>
+    <t>Changelog from previous version</t>
+  </si>
+  <si>
+    <t>Added selection of PCR enzyme and capture to expt_metadata</t>
+  </si>
+  <si>
+    <t>Addded MVP to list of assays</t>
+  </si>
+  <si>
+    <t>DNA Source:</t>
+  </si>
+  <si>
+    <t>Add DNA Source info</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Enzyme</t>
+  </si>
+  <si>
+    <t>Q5 Master Mix</t>
+  </si>
+  <si>
+    <t>Enzyme Vol</t>
+  </si>
+  <si>
+    <t>Template Volume</t>
+  </si>
+  <si>
+    <t>Primer Pool vol</t>
+  </si>
+  <si>
+    <t>dNTP</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>SWGA product (KAPA)</t>
+  </si>
+  <si>
+    <t>DNA Extract (Q5)</t>
+  </si>
+  <si>
+    <t>Changed all CONCAT refs to CONCATENATE for translations</t>
+  </si>
+  <si>
+    <t>Project A</t>
+  </si>
+  <si>
+    <t>Project B</t>
+  </si>
+  <si>
+    <t>Project C</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1408,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1476,24 +1529,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1518,6 +1553,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1654,7 +1696,7 @@
     <cellStyle name="Normal 4" xfId="3" xr:uid="{50147B5D-B577-4D84-8D3E-2790725A5EE2}"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -1705,103 +1747,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1812,11 +1757,20 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1968,7 +1922,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2140,23 +2094,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_PCR" displayName="tbl_PCR" ref="A2:J98" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_PCR" displayName="tbl_PCR" ref="A2:J98" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="A2:J98" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="21">
-      <calculatedColumnFormula>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="19">
+      <calculatedColumnFormula>IF(pcr_dna_source="DNA Extract (Q5)","Direct DNA","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="18">
+      <calculatedColumnFormula>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="15">
       <calculatedColumnFormula>IF(OR(G3="",H3=""),"",SUM(G3*H3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2174,8 +2130,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G4" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="E2:G4" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="E2:G5" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="10"/>
@@ -2186,9 +2142,25 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1F7724E8-27D2-44E9-85B4-57378D47D280}" name="tbl_expt_metadata" displayName="tbl_expt_metadata" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{1F7724E8-27D2-44E9-85B4-57378D47D280}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7577A94C-B56B-4F54-BD7F-5F341857DAB8}" name="tbl_template" displayName="tbl_template" ref="E7:K9" totalsRowShown="0">
+  <autoFilter ref="E7:K9" xr:uid="{7577A94C-B56B-4F54-BD7F-5F341857DAB8}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F4C3F9A8-1008-4F6B-840D-280BD6FE787E}" name="Template"/>
+    <tableColumn id="7" xr3:uid="{70C3F764-E116-465A-8CFC-BDB26F364548}" name="Template Volume"/>
+    <tableColumn id="3" xr3:uid="{0AB3E7D5-4939-40E7-8577-579B3E261745}" name="Enzyme"/>
+    <tableColumn id="6" xr3:uid="{E21139B7-C5FD-477D-8ED9-A828F15844D3}" name="Enzyme Vol"/>
+    <tableColumn id="9" xr3:uid="{42A353D5-649E-4805-AE81-B1A0E3D3F82F}" name="dNTP"/>
+    <tableColumn id="10" xr3:uid="{C045F082-D561-44DC-ABE8-861FE1ADD211}" name="Buffer"/>
+    <tableColumn id="2" xr3:uid="{BB3BE399-3A7A-4A3F-B979-8000C6923CAB}" name="Primer Pool vol"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1F7724E8-27D2-44E9-85B4-57378D47D280}" name="tbl_expt_metadata" displayName="tbl_expt_metadata" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2" xr:uid="{1F7724E8-27D2-44E9-85B4-57378D47D280}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{CF92ACF9-25F8-4BAA-B9F1-567A722EDD10}" name="expt_id">
       <calculatedColumnFormula>exp_id</calculatedColumnFormula>
     </tableColumn>
@@ -2225,12 +2197,15 @@
     <tableColumn id="9" xr3:uid="{5C17D014-189E-43E2-A899-4574390B7A58}" name="pcr_targetpanel">
       <calculatedColumnFormula>pcr_targetpanel</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="13" xr3:uid="{4786D324-56A9-420B-A7CB-8083E29E50BD}" name="pcr_enzyme">
+      <calculatedColumnFormula>pcr_enzyme</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}" name="tbl_rxn_metadata" displayName="tbl_rxn_metadata" ref="A1:F97" totalsRowShown="0">
   <autoFilter ref="A1:F97" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}"/>
   <tableColumns count="6">
@@ -2258,9 +2233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2298,7 +2273,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2404,7 +2379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2546,7 +2521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2558,10 +2533,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2570,265 +2545,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
+      <c r="A1" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="71"/>
+      <c r="K2" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="74"/>
-      <c r="K2" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="66"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="61"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="64"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="65"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="81" t="str">
-        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",_xlfn.CONCAT("PC",VLOOKUP(C3,reference!I3:J5,2,FALSE),C4))</f>
-        <v/>
-      </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="A5" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="78" t="str">
+        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("PC",VLOOKUP(C3,reference!M3:N5,2,FALSE),C4))</f>
+        <v/>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="K5" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="L5" s="68"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="79" t="str">
+        <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_PCR_",C5))</f>
+        <v/>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="37"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="86" t="str">
+        <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
+        <v/>
+      </c>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92" t="str">
+        <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
+        <v/>
+      </c>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="81" t="str">
+        <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="L5" s="71"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="82" t="str">
-        <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",_xlfn.CONCAT(C2,"_PCR_",C5))</f>
-        <v/>
-      </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="37"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="81" t="str">
+        <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="89" t="str">
-        <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",_xlfn.CONCAT(C7,"_Batch",C8))</f>
-        <v/>
-      </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95" t="str">
-        <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",_xlfn.CONCAT(C6,"_",exp_summary,".xlsx"))</f>
-        <v/>
-      </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="84" t="str">
-        <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="84" t="str">
-        <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="21" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
+      <c r="A14" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
+      <c r="A15" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A16" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="73"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
@@ -2836,209 +2811,228 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D19" s="17">
         <v>0.1</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
+      <c r="G19" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="97" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97" t="str">
-        <f>_xlfn.CONCAT("MM x",exp_rxns, " (µl)")</f>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94" t="str">
+        <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G20" s="97"/>
+      <c r="G20" s="94"/>
       <c r="H20" s="9"/>
-      <c r="J20" s="85" t="s">
+      <c r="J20" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="85"/>
+      <c r="K20" s="82"/>
       <c r="L20" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69">
-        <v>2</v>
-      </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="98"/>
-      <c r="H21" s="9"/>
-      <c r="J21" s="67">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="67">
+        <f>pcr_dna_source</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="66">
+        <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="66"/>
+      <c r="F21" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="95"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="64">
         <v>93</v>
       </c>
-      <c r="K21" s="67"/>
+      <c r="K21" s="64"/>
       <c r="L21" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93">
-        <v>5</v>
-      </c>
-      <c r="E22" s="93"/>
-      <c r="F22" s="92">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="90">
+        <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],3,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="66">
+        <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],4,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="66"/>
+      <c r="F22" s="89">
         <f>SUM(D22*exp_rxns*(1+$D$19))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="92"/>
-      <c r="H22" s="9"/>
-      <c r="J22" s="68">
+      <c r="G22" s="89"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="65">
         <v>98</v>
       </c>
-      <c r="K22" s="68"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="90" t="str">
+        <f>IF(D23=0,"-","10mM dNTPs")</f>
+        <v>-</v>
+      </c>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="66">
+        <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],5,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="66"/>
+      <c r="F23" s="89" t="str">
+        <f>IF(D23=0,"",SUM(D23*exp_rxns*(1+$D$19)))</f>
+        <v/>
+      </c>
+      <c r="G23" s="89"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="66">
+        <v>50</v>
+      </c>
+      <c r="K23" s="66"/>
+      <c r="L23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="69"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="90" t="str">
+        <f>IF(D24=0,"-","Buffer")</f>
+        <v>-</v>
+      </c>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="66">
+        <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="66"/>
+      <c r="F24" s="89" t="str">
+        <f>IF(D24=0,"",SUM(D24*exp_rxns*(1+$D$19)))</f>
+        <v/>
+      </c>
+      <c r="G24" s="89"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="67">
+        <v>60</v>
+      </c>
+      <c r="K24" s="67"/>
+      <c r="L24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="69"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="66">
+        <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],7,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="66"/>
+      <c r="F25" s="89" t="str">
+        <f>IF(D25=0,"",SUM(D25*exp_rxns*(1+$D$19)))</f>
+        <v/>
+      </c>
+      <c r="G25" s="89"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="66">
+        <v>60</v>
+      </c>
+      <c r="K25" s="66"/>
+      <c r="L25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93">
-        <v>0.75</v>
-      </c>
-      <c r="E23" s="93"/>
-      <c r="F23" s="92">
-        <f>SUM(D23*exp_rxns*(1+$D$19))</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="92"/>
-      <c r="H23" s="9"/>
-      <c r="J23" s="69">
-        <v>50</v>
-      </c>
-      <c r="K23" s="69"/>
-      <c r="L23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="72"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="93"/>
-      <c r="F24" s="92">
-        <f>SUM(D24*exp_rxns*(1+$D$19))</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="92"/>
-      <c r="H24" s="9"/>
-      <c r="J24" s="70">
-        <v>60</v>
-      </c>
-      <c r="K24" s="70"/>
-      <c r="L24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="72"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93">
-        <v>1.5</v>
-      </c>
-      <c r="E25" s="93"/>
-      <c r="F25" s="92">
-        <f>SUM(D25*exp_rxns*(1+$D$19))</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="92"/>
-      <c r="H25" s="9"/>
-      <c r="J25" s="69">
-        <v>60</v>
-      </c>
-      <c r="K25" s="69"/>
-      <c r="L25" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93">
-        <v>15.25</v>
-      </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="92">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90">
+        <f>SUM(25-SUM(D21:E25))</f>
+        <v>25</v>
+      </c>
+      <c r="E26" s="90"/>
+      <c r="F26" s="89">
         <f>SUM(D26*exp_rxns*(1+$D$19))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="92"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="9"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D27" s="91">
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="88">
         <f>SUM(D21:D26)</f>
         <v>25</v>
       </c>
-      <c r="E27" s="91"/>
+      <c r="E27" s="88"/>
       <c r="F27" s="15" t="str">
-        <f>_xlfn.CONCAT("Add ",SUM(D22:D26)," µl of MM to each well")</f>
-        <v>Add 23 µl of MM to each well</v>
+        <f>CONCATENATE("Add ",SUM(D22:D26)," µl of MM to each well")</f>
+        <v>Add 25 µl of MM to each well</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -3047,27 +3041,27 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="K28" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="K28" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -3076,13 +3070,13 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="9"/>
-      <c r="K30" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -3092,9 +3086,9 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -3145,7 +3139,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B34" s="44" t="str">
         <f>IF(ISBLANK(PCR!D3), "",PCR!D3)</f>
@@ -3198,7 +3192,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B35" s="44" t="str">
         <f>IF(ISBLANK(PCR!D4), "",PCR!D4)</f>
@@ -3251,7 +3245,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B36" s="44" t="str">
         <f>IF(ISBLANK(PCR!D5), "",PCR!D5)</f>
@@ -3304,7 +3298,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B37" s="44" t="str">
         <f>IF(ISBLANK(PCR!D6), "",PCR!D6)</f>
@@ -3357,7 +3351,7 @@
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B38" s="44" t="str">
         <f>IF(ISBLANK(PCR!D7), "",PCR!D7)</f>
@@ -3410,7 +3404,7 @@
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B39" s="44" t="str">
         <f>IF(ISBLANK(PCR!D8), "",PCR!D8)</f>
@@ -3463,7 +3457,7 @@
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B40" s="44" t="str">
         <f>IF(ISBLANK(PCR!D9), "",PCR!D9)</f>
@@ -3516,7 +3510,7 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B41" s="44" t="str">
         <f>IF(ISBLANK(PCR!D10), "",PCR!D10)</f>
@@ -3571,7 +3565,7 @@
       <c r="A42" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="70">
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="D20:E20"/>
@@ -3620,6 +3614,7 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A3:B3"/>
@@ -3642,7 +3637,7 @@
     <mergeCell ref="K5:L6"/>
     <mergeCell ref="M22:M24"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C4 C11 C14:C16">
+  <conditionalFormatting sqref="C2:C4 C11 C14:C16 H19">
     <cfRule type="expression" dxfId="3" priority="11">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
@@ -3662,24 +3657,30 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2D209A61-95A4-4650-B046-4C47A8DE31E6}">
-          <x14:formula1>
-            <xm:f>reference!$E$3:$E$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C11</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACDC75C9-791B-4E82-A9A3-D2BDFD36107F}">
           <x14:formula1>
-            <xm:f>reference!$L$3:$L$5</xm:f>
+            <xm:f>reference!$P$3:$P$5</xm:f>
           </x14:formula1>
           <xm:sqref>C7:F7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E7C7338-D4B5-4229-8F49-1913883BAA1F}">
           <x14:formula1>
-            <xm:f>reference!$I$3:$I$5</xm:f>
+            <xm:f>reference!$M$3:$M$5</xm:f>
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7FF4FB8-46D6-44CC-B8C5-ADFDB2C0B6F7}">
+          <x14:formula1>
+            <xm:f>reference!$E$8:$E$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H19:I19</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58C9E0CC-D820-49E0-B8FE-F2C4BD08D2E5}">
+          <x14:formula1>
+            <xm:f>reference!$E$3:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:F11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3696,7 +3697,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3709,51 +3710,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="100"/>
+      <c r="C1" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="97"/>
       <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="103"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3761,19 +3762,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="45"/>
+        <v>37</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="45" t="str">
+        <f t="shared" ref="E3:E34" si="0">IF(pcr_dna_source="DNA Extract (Q5)","Direct DNA","")</f>
+        <v/>
+      </c>
       <c r="F3" s="32" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
       <c r="I3" s="36" t="str">
-        <f t="shared" ref="I3:I67" si="0">IF(OR(G3="",H3=""),"",SUM(G3*H3))</f>
+        <f t="shared" ref="I3:I67" si="1">IF(OR(G3="",H3=""),"",SUM(G3*H3))</f>
         <v/>
       </c>
       <c r="J3" s="32"/>
@@ -3783,19 +3787,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="45"/>
+        <v>49</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F4" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="33"/>
       <c r="I4" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J4" s="32"/>
@@ -3805,19 +3812,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="45"/>
+        <v>58</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F5" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J5" s="32"/>
@@ -3827,19 +3837,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="45"/>
+        <v>60</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F6" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="33"/>
       <c r="I6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J6" s="32"/>
@@ -3849,19 +3862,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="45"/>
+        <v>62</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F7" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J7" s="32"/>
@@ -3871,19 +3887,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="45"/>
+        <v>63</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F8" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="33"/>
       <c r="I8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J8" s="32"/>
@@ -3893,19 +3912,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F9" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J9" s="32"/>
@@ -3915,19 +3937,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
+        <v>65</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F10" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="33"/>
       <c r="I10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J10" s="32"/>
@@ -3937,19 +3962,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="55"/>
+        <v>38</v>
+      </c>
+      <c r="C11" s="49"/>
       <c r="D11" s="34"/>
-      <c r="E11" s="56"/>
+      <c r="E11" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F11" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J11" s="32"/>
@@ -3959,19 +3987,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="55"/>
+        <v>50</v>
+      </c>
+      <c r="C12" s="49"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="56"/>
+      <c r="E12" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F12" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J12" s="32"/>
@@ -3981,19 +4012,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="55"/>
+        <v>59</v>
+      </c>
+      <c r="C13" s="49"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="56"/>
+      <c r="E13" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F13" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J13" s="32"/>
@@ -4003,19 +4037,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="55"/>
+        <v>61</v>
+      </c>
+      <c r="C14" s="49"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="56"/>
+      <c r="E14" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F14" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J14" s="32"/>
@@ -4025,19 +4062,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="55"/>
+        <v>66</v>
+      </c>
+      <c r="C15" s="49"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="56"/>
+      <c r="E15" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F15" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J15" s="32"/>
@@ -4047,19 +4087,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="55"/>
+        <v>67</v>
+      </c>
+      <c r="C16" s="49"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="56"/>
+      <c r="E16" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F16" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J16" s="32"/>
@@ -4069,19 +4112,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="55"/>
+        <v>68</v>
+      </c>
+      <c r="C17" s="49"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="56"/>
+      <c r="E17" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F17" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J17" s="32"/>
@@ -4091,19 +4137,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="55"/>
+        <v>69</v>
+      </c>
+      <c r="C18" s="49"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="56"/>
+      <c r="E18" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F18" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J18" s="32"/>
@@ -4113,19 +4162,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="55"/>
+        <v>39</v>
+      </c>
+      <c r="C19" s="49"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="56"/>
+      <c r="E19" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F19" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J19" s="32"/>
@@ -4135,19 +4187,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="55"/>
+        <v>51</v>
+      </c>
+      <c r="C20" s="49"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="56"/>
+      <c r="E20" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F20" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J20" s="32"/>
@@ -4157,19 +4212,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="55"/>
+        <v>70</v>
+      </c>
+      <c r="C21" s="49"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="56"/>
+      <c r="E21" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F21" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J21" s="32"/>
@@ -4179,19 +4237,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="55"/>
+        <v>71</v>
+      </c>
+      <c r="C22" s="49"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F22" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J22" s="32"/>
@@ -4201,19 +4262,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="55"/>
+        <v>72</v>
+      </c>
+      <c r="C23" s="49"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="56"/>
+      <c r="E23" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F23" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J23" s="32"/>
@@ -4223,19 +4287,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="55"/>
+        <v>73</v>
+      </c>
+      <c r="C24" s="49"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="56"/>
+      <c r="E24" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F24" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J24" s="32"/>
@@ -4245,19 +4312,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="55"/>
+        <v>74</v>
+      </c>
+      <c r="C25" s="49"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="56"/>
+      <c r="E25" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F25" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J25" s="32"/>
@@ -4267,19 +4337,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="55"/>
+        <v>75</v>
+      </c>
+      <c r="C26" s="49"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="56"/>
+      <c r="E26" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F26" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J26" s="32"/>
@@ -4289,19 +4362,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="55"/>
+        <v>40</v>
+      </c>
+      <c r="C27" s="49"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="56"/>
+      <c r="E27" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F27" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J27" s="32"/>
@@ -4311,19 +4387,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="55"/>
+        <v>52</v>
+      </c>
+      <c r="C28" s="49"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="56"/>
+      <c r="E28" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F28" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J28" s="32"/>
@@ -4333,19 +4412,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="55"/>
+        <v>76</v>
+      </c>
+      <c r="C29" s="49"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="56"/>
+      <c r="E29" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F29" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J29" s="32"/>
@@ -4355,19 +4437,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="55"/>
+        <v>77</v>
+      </c>
+      <c r="C30" s="49"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="56"/>
+      <c r="E30" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F30" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J30" s="32"/>
@@ -4377,19 +4462,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="55"/>
+        <v>78</v>
+      </c>
+      <c r="C31" s="49"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="56"/>
+      <c r="E31" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F31" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J31" s="32"/>
@@ -4399,19 +4487,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="55"/>
+        <v>79</v>
+      </c>
+      <c r="C32" s="49"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="56"/>
+      <c r="E32" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F32" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J32" s="32"/>
@@ -4421,19 +4512,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="55"/>
+        <v>80</v>
+      </c>
+      <c r="C33" s="49"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="56"/>
+      <c r="E33" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F33" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J33" s="32"/>
@@ -4443,19 +4537,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="55"/>
+        <v>81</v>
+      </c>
+      <c r="C34" s="49"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="56"/>
+      <c r="E34" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F34" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J34" s="32"/>
@@ -4465,19 +4562,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="55"/>
+        <v>41</v>
+      </c>
+      <c r="C35" s="49"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="56"/>
+      <c r="E35" s="50" t="str">
+        <f t="shared" ref="E35:E66" si="2">IF(pcr_dna_source="DNA Extract (Q5)","Direct DNA","")</f>
+        <v/>
+      </c>
       <c r="F35" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J35" s="32"/>
@@ -4487,19 +4587,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="55"/>
+        <v>53</v>
+      </c>
+      <c r="C36" s="49"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="56"/>
+      <c r="E36" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F36" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J36" s="32"/>
@@ -4509,19 +4612,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="55"/>
+        <v>82</v>
+      </c>
+      <c r="C37" s="49"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="56"/>
+      <c r="E37" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F37" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J37" s="32"/>
@@ -4531,19 +4637,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="55"/>
+        <v>83</v>
+      </c>
+      <c r="C38" s="49"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="56"/>
+      <c r="E38" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F38" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J38" s="32"/>
@@ -4553,19 +4662,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="55"/>
+        <v>84</v>
+      </c>
+      <c r="C39" s="49"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="56"/>
+      <c r="E39" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F39" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J39" s="32"/>
@@ -4575,19 +4687,22 @@
         <v>38</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="55"/>
+        <v>85</v>
+      </c>
+      <c r="C40" s="49"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="56"/>
+      <c r="E40" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F40" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J40" s="32"/>
@@ -4597,19 +4712,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="55"/>
+        <v>86</v>
+      </c>
+      <c r="C41" s="49"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="56"/>
+      <c r="E41" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F41" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J41" s="32"/>
@@ -4619,19 +4737,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="55"/>
+        <v>87</v>
+      </c>
+      <c r="C42" s="49"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="56"/>
+      <c r="E42" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F42" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J42" s="32"/>
@@ -4641,19 +4762,22 @@
         <v>41</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="55"/>
+        <v>42</v>
+      </c>
+      <c r="C43" s="49"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="56"/>
+      <c r="E43" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F43" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J43" s="32"/>
@@ -4663,19 +4787,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="55"/>
+        <v>54</v>
+      </c>
+      <c r="C44" s="49"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="56"/>
+      <c r="E44" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F44" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J44" s="32"/>
@@ -4685,19 +4812,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="55"/>
+        <v>88</v>
+      </c>
+      <c r="C45" s="49"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="56"/>
+      <c r="E45" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F45" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J45" s="32"/>
@@ -4707,19 +4837,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="55"/>
+        <v>89</v>
+      </c>
+      <c r="C46" s="49"/>
       <c r="D46" s="34"/>
-      <c r="E46" s="56"/>
+      <c r="E46" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F46" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J46" s="32"/>
@@ -4729,19 +4862,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="55"/>
+        <v>90</v>
+      </c>
+      <c r="C47" s="49"/>
       <c r="D47" s="34"/>
-      <c r="E47" s="56"/>
+      <c r="E47" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F47" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J47" s="32"/>
@@ -4751,19 +4887,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="C48" s="49"/>
       <c r="D48" s="34"/>
-      <c r="E48" s="56"/>
+      <c r="E48" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F48" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J48" s="32"/>
@@ -4773,19 +4912,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="55"/>
+        <v>92</v>
+      </c>
+      <c r="C49" s="49"/>
       <c r="D49" s="34"/>
-      <c r="E49" s="56"/>
+      <c r="E49" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F49" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J49" s="32"/>
@@ -4795,19 +4937,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="55"/>
+        <v>93</v>
+      </c>
+      <c r="C50" s="49"/>
       <c r="D50" s="34"/>
-      <c r="E50" s="56"/>
+      <c r="E50" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F50" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J50" s="32"/>
@@ -4817,19 +4962,22 @@
         <v>49</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="55"/>
+        <v>43</v>
+      </c>
+      <c r="C51" s="49"/>
       <c r="D51" s="34"/>
-      <c r="E51" s="56"/>
+      <c r="E51" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F51" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J51" s="32"/>
@@ -4839,19 +4987,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="55"/>
+        <v>55</v>
+      </c>
+      <c r="C52" s="49"/>
       <c r="D52" s="34"/>
-      <c r="E52" s="56"/>
+      <c r="E52" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F52" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J52" s="32"/>
@@ -4861,19 +5012,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="55"/>
+        <v>94</v>
+      </c>
+      <c r="C53" s="49"/>
       <c r="D53" s="34"/>
-      <c r="E53" s="56"/>
+      <c r="E53" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F53" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J53" s="32"/>
@@ -4883,19 +5037,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="55"/>
+        <v>95</v>
+      </c>
+      <c r="C54" s="49"/>
       <c r="D54" s="34"/>
-      <c r="E54" s="56"/>
+      <c r="E54" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F54" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J54" s="32"/>
@@ -4905,19 +5062,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="55"/>
+        <v>96</v>
+      </c>
+      <c r="C55" s="49"/>
       <c r="D55" s="34"/>
-      <c r="E55" s="56"/>
+      <c r="E55" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F55" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J55" s="32"/>
@@ -4927,19 +5087,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="55"/>
+        <v>97</v>
+      </c>
+      <c r="C56" s="49"/>
       <c r="D56" s="34"/>
-      <c r="E56" s="56"/>
+      <c r="E56" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F56" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J56" s="32"/>
@@ -4949,19 +5112,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="55"/>
+        <v>98</v>
+      </c>
+      <c r="C57" s="49"/>
       <c r="D57" s="34"/>
-      <c r="E57" s="56"/>
+      <c r="E57" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F57" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J57" s="32"/>
@@ -4971,19 +5137,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="55"/>
+        <v>99</v>
+      </c>
+      <c r="C58" s="49"/>
       <c r="D58" s="34"/>
-      <c r="E58" s="56"/>
+      <c r="E58" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F58" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J58" s="32"/>
@@ -4993,19 +5162,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="55"/>
+        <v>44</v>
+      </c>
+      <c r="C59" s="49"/>
       <c r="D59" s="34"/>
-      <c r="E59" s="56"/>
+      <c r="E59" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F59" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J59" s="32"/>
@@ -5015,19 +5187,22 @@
         <v>58</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="55"/>
+        <v>56</v>
+      </c>
+      <c r="C60" s="49"/>
       <c r="D60" s="34"/>
-      <c r="E60" s="56"/>
+      <c r="E60" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F60" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J60" s="32"/>
@@ -5037,19 +5212,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="55"/>
+        <v>100</v>
+      </c>
+      <c r="C61" s="49"/>
       <c r="D61" s="34"/>
-      <c r="E61" s="56"/>
+      <c r="E61" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F61" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J61" s="32"/>
@@ -5059,19 +5237,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="C62" s="49"/>
       <c r="D62" s="34"/>
-      <c r="E62" s="56"/>
+      <c r="E62" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F62" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J62" s="32"/>
@@ -5081,19 +5262,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" s="55"/>
+        <v>102</v>
+      </c>
+      <c r="C63" s="49"/>
       <c r="D63" s="34"/>
-      <c r="E63" s="56"/>
+      <c r="E63" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F63" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J63" s="32"/>
@@ -5103,19 +5287,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="55"/>
+        <v>103</v>
+      </c>
+      <c r="C64" s="49"/>
       <c r="D64" s="34"/>
-      <c r="E64" s="56"/>
+      <c r="E64" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F64" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J64" s="32"/>
@@ -5125,19 +5312,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="55"/>
+        <v>104</v>
+      </c>
+      <c r="C65" s="49"/>
       <c r="D65" s="34"/>
-      <c r="E65" s="56"/>
+      <c r="E65" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F65" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J65" s="32"/>
@@ -5147,19 +5337,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="55"/>
+        <v>105</v>
+      </c>
+      <c r="C66" s="49"/>
       <c r="D66" s="34"/>
-      <c r="E66" s="56"/>
+      <c r="E66" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="F66" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J66" s="32"/>
@@ -5169,19 +5362,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="55"/>
+        <v>45</v>
+      </c>
+      <c r="C67" s="49"/>
       <c r="D67" s="34"/>
-      <c r="E67" s="56"/>
+      <c r="E67" s="50" t="str">
+        <f t="shared" ref="E67:E98" si="3">IF(pcr_dna_source="DNA Extract (Q5)","Direct DNA","")</f>
+        <v/>
+      </c>
       <c r="F67" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J67" s="32"/>
@@ -5191,19 +5387,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="55"/>
+        <v>57</v>
+      </c>
+      <c r="C68" s="49"/>
       <c r="D68" s="34"/>
-      <c r="E68" s="56"/>
+      <c r="E68" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F68" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="4" t="str">
-        <f t="shared" ref="I68:I98" si="1">IF(OR(G68="",H68=""),"",SUM(G68*H68))</f>
+        <f t="shared" ref="I68:I98" si="4">IF(OR(G68="",H68=""),"",SUM(G68*H68))</f>
         <v/>
       </c>
       <c r="J68" s="32"/>
@@ -5213,19 +5412,22 @@
         <v>67</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="55"/>
+        <v>106</v>
+      </c>
+      <c r="C69" s="49"/>
       <c r="D69" s="34"/>
-      <c r="E69" s="56"/>
+      <c r="E69" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F69" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J69" s="32"/>
@@ -5235,19 +5437,22 @@
         <v>68</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="C70" s="49"/>
       <c r="D70" s="34"/>
-      <c r="E70" s="56"/>
+      <c r="E70" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F70" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J70" s="32"/>
@@ -5257,19 +5462,22 @@
         <v>69</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="55"/>
+        <v>108</v>
+      </c>
+      <c r="C71" s="49"/>
       <c r="D71" s="34"/>
-      <c r="E71" s="56"/>
+      <c r="E71" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F71" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J71" s="32"/>
@@ -5279,19 +5487,22 @@
         <v>70</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="55"/>
+        <v>109</v>
+      </c>
+      <c r="C72" s="49"/>
       <c r="D72" s="34"/>
-      <c r="E72" s="56"/>
+      <c r="E72" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F72" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J72" s="32"/>
@@ -5301,19 +5512,22 @@
         <v>71</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" s="55"/>
+        <v>110</v>
+      </c>
+      <c r="C73" s="49"/>
       <c r="D73" s="34"/>
-      <c r="E73" s="56"/>
+      <c r="E73" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F73" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J73" s="32"/>
@@ -5323,19 +5537,22 @@
         <v>72</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="55"/>
+        <v>111</v>
+      </c>
+      <c r="C74" s="49"/>
       <c r="D74" s="34"/>
-      <c r="E74" s="56"/>
+      <c r="E74" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F74" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J74" s="32"/>
@@ -5345,19 +5562,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C75" s="55"/>
+        <v>46</v>
+      </c>
+      <c r="C75" s="49"/>
       <c r="D75" s="34"/>
-      <c r="E75" s="56"/>
+      <c r="E75" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F75" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J75" s="32"/>
@@ -5367,19 +5587,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C76" s="55"/>
+        <v>112</v>
+      </c>
+      <c r="C76" s="49"/>
       <c r="D76" s="34"/>
-      <c r="E76" s="56"/>
+      <c r="E76" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F76" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J76" s="32"/>
@@ -5389,19 +5612,22 @@
         <v>75</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="55"/>
+        <v>113</v>
+      </c>
+      <c r="C77" s="49"/>
       <c r="D77" s="34"/>
-      <c r="E77" s="56"/>
+      <c r="E77" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F77" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J77" s="32"/>
@@ -5411,19 +5637,22 @@
         <v>76</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="55"/>
+        <v>114</v>
+      </c>
+      <c r="C78" s="49"/>
       <c r="D78" s="34"/>
-      <c r="E78" s="56"/>
+      <c r="E78" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F78" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J78" s="32"/>
@@ -5433,19 +5662,22 @@
         <v>77</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" s="55"/>
+        <v>115</v>
+      </c>
+      <c r="C79" s="49"/>
       <c r="D79" s="34"/>
-      <c r="E79" s="56"/>
+      <c r="E79" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F79" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J79" s="32"/>
@@ -5455,19 +5687,22 @@
         <v>78</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" s="55"/>
+        <v>116</v>
+      </c>
+      <c r="C80" s="49"/>
       <c r="D80" s="34"/>
-      <c r="E80" s="56"/>
+      <c r="E80" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F80" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J80" s="32"/>
@@ -5477,19 +5712,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C81" s="55"/>
+        <v>117</v>
+      </c>
+      <c r="C81" s="49"/>
       <c r="D81" s="34"/>
-      <c r="E81" s="56"/>
+      <c r="E81" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F81" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J81" s="32"/>
@@ -5499,19 +5737,22 @@
         <v>80</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="55"/>
+        <v>118</v>
+      </c>
+      <c r="C82" s="49"/>
       <c r="D82" s="34"/>
-      <c r="E82" s="56"/>
+      <c r="E82" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F82" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J82" s="32"/>
@@ -5521,19 +5762,22 @@
         <v>81</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="55"/>
+        <v>47</v>
+      </c>
+      <c r="C83" s="49"/>
       <c r="D83" s="34"/>
-      <c r="E83" s="56"/>
+      <c r="E83" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F83" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J83" s="32"/>
@@ -5543,19 +5787,22 @@
         <v>82</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" s="55"/>
+        <v>119</v>
+      </c>
+      <c r="C84" s="49"/>
       <c r="D84" s="34"/>
-      <c r="E84" s="56"/>
+      <c r="E84" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F84" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J84" s="32"/>
@@ -5565,19 +5812,22 @@
         <v>83</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C85" s="55"/>
+        <v>120</v>
+      </c>
+      <c r="C85" s="49"/>
       <c r="D85" s="34"/>
-      <c r="E85" s="56"/>
+      <c r="E85" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F85" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J85" s="32"/>
@@ -5587,19 +5837,22 @@
         <v>84</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C86" s="55"/>
+        <v>121</v>
+      </c>
+      <c r="C86" s="49"/>
       <c r="D86" s="34"/>
-      <c r="E86" s="56"/>
+      <c r="E86" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F86" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J86" s="32"/>
@@ -5609,19 +5862,22 @@
         <v>85</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" s="55"/>
+        <v>122</v>
+      </c>
+      <c r="C87" s="49"/>
       <c r="D87" s="34"/>
-      <c r="E87" s="56"/>
+      <c r="E87" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F87" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J87" s="32"/>
@@ -5631,19 +5887,22 @@
         <v>86</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C88" s="55"/>
+        <v>123</v>
+      </c>
+      <c r="C88" s="49"/>
       <c r="D88" s="34"/>
-      <c r="E88" s="56"/>
+      <c r="E88" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F88" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J88" s="32"/>
@@ -5653,19 +5912,22 @@
         <v>87</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="55"/>
+        <v>124</v>
+      </c>
+      <c r="C89" s="49"/>
       <c r="D89" s="34"/>
-      <c r="E89" s="56"/>
+      <c r="E89" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F89" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J89" s="32"/>
@@ -5675,19 +5937,22 @@
         <v>88</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C90" s="55"/>
+        <v>125</v>
+      </c>
+      <c r="C90" s="49"/>
       <c r="D90" s="34"/>
-      <c r="E90" s="56"/>
+      <c r="E90" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F90" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J90" s="32"/>
@@ -5697,19 +5962,22 @@
         <v>89</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C91" s="55"/>
+        <v>48</v>
+      </c>
+      <c r="C91" s="49"/>
       <c r="D91" s="34"/>
-      <c r="E91" s="56"/>
+      <c r="E91" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F91" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J91" s="32"/>
@@ -5719,19 +5987,22 @@
         <v>90</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" s="55"/>
+        <v>126</v>
+      </c>
+      <c r="C92" s="49"/>
       <c r="D92" s="34"/>
-      <c r="E92" s="56"/>
+      <c r="E92" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F92" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J92" s="32"/>
@@ -5741,19 +6012,22 @@
         <v>91</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C93" s="55"/>
+        <v>127</v>
+      </c>
+      <c r="C93" s="49"/>
       <c r="D93" s="34"/>
-      <c r="E93" s="56"/>
+      <c r="E93" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F93" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J93" s="32"/>
@@ -5763,19 +6037,22 @@
         <v>92</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" s="55"/>
+        <v>128</v>
+      </c>
+      <c r="C94" s="49"/>
       <c r="D94" s="34"/>
-      <c r="E94" s="56"/>
+      <c r="E94" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F94" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J94" s="32"/>
@@ -5785,19 +6062,22 @@
         <v>93</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="55"/>
+        <v>129</v>
+      </c>
+      <c r="C95" s="49"/>
       <c r="D95" s="34"/>
-      <c r="E95" s="56"/>
+      <c r="E95" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F95" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J95" s="32"/>
@@ -5807,19 +6087,22 @@
         <v>94</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C96" s="55"/>
+        <v>130</v>
+      </c>
+      <c r="C96" s="49"/>
       <c r="D96" s="34"/>
-      <c r="E96" s="56"/>
+      <c r="E96" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F96" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J96" s="32"/>
@@ -5829,19 +6112,22 @@
         <v>95</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C97" s="55"/>
+        <v>131</v>
+      </c>
+      <c r="C97" s="49"/>
       <c r="D97" s="34"/>
-      <c r="E97" s="56"/>
+      <c r="E97" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F97" s="16" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J97" s="32"/>
@@ -5851,19 +6137,22 @@
         <v>96</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C98" s="55"/>
+        <v>132</v>
+      </c>
+      <c r="C98" s="49"/>
       <c r="D98" s="34"/>
-      <c r="E98" s="57"/>
+      <c r="E98" s="51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F98" s="26" t="str">
-        <f>IF(ISBLANK(tbl_PCR[[#This Row],[sWGA identifier]]),"",_xlfn.CONCAT(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J98" s="32"/>
@@ -6014,10 +6303,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6035,7 +6324,7 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -6052,36 +6341,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="42" t="s">
         <v>186</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6090,51 +6379,51 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6147,10 +6436,10 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L5"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6159,157 +6448,247 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.875" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="14" max="14" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F1" s="5"/>
-      <c r="I1" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="P2" s="53" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+      <c r="E3" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="G3" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="M3" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+      <c r="E4" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="59" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="7"/>
-      <c r="E3" s="49" t="s">
+      <c r="F4" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="G4" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="7"/>
-      <c r="E4" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="P4" s="54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
       <c r="D5" s="7"/>
-      <c r="I5" s="60" t="s">
+      <c r="E5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="P5" s="54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H9">
+        <v>14.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="J5" s="60" t="s">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+      <c r="M10" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="L5" s="60" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I8" s="61" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I9" s="61" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I10" s="61" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>243</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>254</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6319,10 +6698,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6331,49 +6710,52 @@
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="31.625" customWidth="1"/>
-    <col min="9" max="11" width="12.125" customWidth="1"/>
-    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
         <v>177</v>
       </c>
-      <c r="D1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" t="s">
-        <v>181</v>
-      </c>
       <c r="F1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="M1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>exp_id</f>
         <v/>
@@ -6392,7 +6774,7 @@
       </c>
       <c r="E2">
         <f>exp_version</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <f>exp_assay</f>
@@ -6421,6 +6803,10 @@
       <c r="L2" t="str">
         <f>pcr_targetpanel</f>
         <v/>
+      </c>
+      <c r="M2">
+        <f>pcr_enzyme</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6453,22 +6839,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" t="s">
         <v>195</v>
-      </c>
-      <c r="C1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/resources/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/resources/templates/NOMADS_PCR_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1F2D59-36A1-46C7-B2A6-5D390FC779D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC8EAE5-47D1-412A-A533-F1C90F25C896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -1698,6 +1698,30 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1914,30 +1938,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2101,18 +2101,18 @@
     <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="19">
-      <calculatedColumnFormula>IF(pcr_dna_source="DNA Extract (Q5)","Direct DNA","")</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="0">
+      <calculatedColumnFormula>IF(AND(pcr_dna_source=reference!E9,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="19">
       <calculatedColumnFormula>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="15">
+    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="16">
       <calculatedColumnFormula>IF(OR(G3="",H3=""),"",SUM(G3*H3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2130,12 +2130,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="E2:G5" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2209,19 +2209,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}" name="tbl_rxn_metadata" displayName="tbl_rxn_metadata" ref="A1:F97" totalsRowShown="0">
   <autoFilter ref="A1:F97" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="9">
       <calculatedColumnFormula>IF(LEN(PCR!C3),PCR!C3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="8">
       <calculatedColumnFormula>IF(LEN(PCR!D3),PCR!D3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="7">
       <calculatedColumnFormula>IF(LEN(PCR!E3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="6">
       <calculatedColumnFormula>IF(LEN(PCR!E3),PCR!E3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="5">
       <calculatedColumnFormula>IF(LEN(PCR!F3),PCR!F3,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{4845F373-7505-41AE-BC4F-278230D9F085}" name="pcr_product_ngul">
@@ -2535,8 +2535,8 @@
   </sheetPr>
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3638,12 +3638,12 @@
     <mergeCell ref="M22:M24"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C4 C11 C14:C16 H19">
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>COUNTIF(C7,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3697,7 +3697,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3767,7 +3767,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="45" t="str">
-        <f t="shared" ref="E3:E34" si="0">IF(pcr_dna_source="DNA Extract (Q5)","Direct DNA","")</f>
+        <f>IF(AND(pcr_dna_source=reference!E9,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F3" s="32" t="str">
@@ -3777,7 +3777,7 @@
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
       <c r="I3" s="36" t="str">
-        <f t="shared" ref="I3:I67" si="1">IF(OR(G3="",H3=""),"",SUM(G3*H3))</f>
+        <f t="shared" ref="I3:I67" si="0">IF(OR(G3="",H3=""),"",SUM(G3*H3))</f>
         <v/>
       </c>
       <c r="J3" s="32"/>
@@ -3792,7 +3792,7 @@
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
       <c r="E4" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E10,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F4" s="16" t="str">
@@ -3802,7 +3802,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="33"/>
       <c r="I4" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J4" s="32"/>
@@ -3817,7 +3817,7 @@
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E11,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F5" s="16" t="str">
@@ -3827,7 +3827,7 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J5" s="32"/>
@@ -3842,7 +3842,7 @@
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E12,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F6" s="16" t="str">
@@ -3852,7 +3852,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="33"/>
       <c r="I6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J6" s="32"/>
@@ -3867,7 +3867,7 @@
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
       <c r="E7" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E13,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F7" s="16" t="str">
@@ -3877,7 +3877,7 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J7" s="32"/>
@@ -3892,7 +3892,7 @@
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E14,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F8" s="16" t="str">
@@ -3902,7 +3902,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="33"/>
       <c r="I8" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J8" s="32"/>
@@ -3917,7 +3917,7 @@
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="45" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E15,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F9" s="16" t="str">
@@ -3927,7 +3927,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J9" s="32"/>
@@ -3942,7 +3942,7 @@
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
       <c r="E10" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E16,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F10" s="16" t="str">
@@ -3952,7 +3952,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="33"/>
       <c r="I10" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J10" s="32"/>
@@ -3967,7 +3967,7 @@
       <c r="C11" s="49"/>
       <c r="D11" s="34"/>
       <c r="E11" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E17,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F11" s="16" t="str">
@@ -3977,7 +3977,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J11" s="32"/>
@@ -3992,7 +3992,7 @@
       <c r="C12" s="49"/>
       <c r="D12" s="34"/>
       <c r="E12" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E18,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F12" s="16" t="str">
@@ -4002,7 +4002,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J12" s="32"/>
@@ -4017,7 +4017,7 @@
       <c r="C13" s="49"/>
       <c r="D13" s="34"/>
       <c r="E13" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E19,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F13" s="16" t="str">
@@ -4027,7 +4027,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J13" s="32"/>
@@ -4042,7 +4042,7 @@
       <c r="C14" s="49"/>
       <c r="D14" s="34"/>
       <c r="E14" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E20,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F14" s="16" t="str">
@@ -4052,7 +4052,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J14" s="32"/>
@@ -4067,7 +4067,7 @@
       <c r="C15" s="49"/>
       <c r="D15" s="34"/>
       <c r="E15" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E21,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F15" s="16" t="str">
@@ -4077,7 +4077,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J15" s="32"/>
@@ -4092,7 +4092,7 @@
       <c r="C16" s="49"/>
       <c r="D16" s="34"/>
       <c r="E16" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E22,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F16" s="16" t="str">
@@ -4102,7 +4102,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J16" s="32"/>
@@ -4117,7 +4117,7 @@
       <c r="C17" s="49"/>
       <c r="D17" s="34"/>
       <c r="E17" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E23,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F17" s="16" t="str">
@@ -4127,7 +4127,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J17" s="32"/>
@@ -4142,7 +4142,7 @@
       <c r="C18" s="49"/>
       <c r="D18" s="34"/>
       <c r="E18" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E24,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F18" s="16" t="str">
@@ -4152,7 +4152,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J18" s="32"/>
@@ -4167,7 +4167,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="34"/>
       <c r="E19" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E25,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F19" s="16" t="str">
@@ -4177,7 +4177,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J19" s="32"/>
@@ -4192,7 +4192,7 @@
       <c r="C20" s="49"/>
       <c r="D20" s="34"/>
       <c r="E20" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E26,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F20" s="16" t="str">
@@ -4202,7 +4202,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J20" s="32"/>
@@ -4217,7 +4217,7 @@
       <c r="C21" s="49"/>
       <c r="D21" s="34"/>
       <c r="E21" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E27,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F21" s="16" t="str">
@@ -4227,7 +4227,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J21" s="32"/>
@@ -4242,7 +4242,7 @@
       <c r="C22" s="49"/>
       <c r="D22" s="34"/>
       <c r="E22" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E28,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F22" s="16" t="str">
@@ -4252,7 +4252,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J22" s="32"/>
@@ -4267,7 +4267,7 @@
       <c r="C23" s="49"/>
       <c r="D23" s="34"/>
       <c r="E23" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E29,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F23" s="16" t="str">
@@ -4277,7 +4277,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J23" s="32"/>
@@ -4292,7 +4292,7 @@
       <c r="C24" s="49"/>
       <c r="D24" s="34"/>
       <c r="E24" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E30,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F24" s="16" t="str">
@@ -4302,7 +4302,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J24" s="32"/>
@@ -4317,7 +4317,7 @@
       <c r="C25" s="49"/>
       <c r="D25" s="34"/>
       <c r="E25" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E31,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F25" s="16" t="str">
@@ -4327,7 +4327,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J25" s="32"/>
@@ -4342,7 +4342,7 @@
       <c r="C26" s="49"/>
       <c r="D26" s="34"/>
       <c r="E26" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E32,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F26" s="16" t="str">
@@ -4352,7 +4352,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J26" s="32"/>
@@ -4367,7 +4367,7 @@
       <c r="C27" s="49"/>
       <c r="D27" s="34"/>
       <c r="E27" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E33,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F27" s="16" t="str">
@@ -4377,7 +4377,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J27" s="32"/>
@@ -4392,7 +4392,7 @@
       <c r="C28" s="49"/>
       <c r="D28" s="34"/>
       <c r="E28" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E34,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F28" s="16" t="str">
@@ -4402,7 +4402,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J28" s="32"/>
@@ -4417,7 +4417,7 @@
       <c r="C29" s="49"/>
       <c r="D29" s="34"/>
       <c r="E29" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E35,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F29" s="16" t="str">
@@ -4427,7 +4427,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J29" s="32"/>
@@ -4442,7 +4442,7 @@
       <c r="C30" s="49"/>
       <c r="D30" s="34"/>
       <c r="E30" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E36,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F30" s="16" t="str">
@@ -4452,7 +4452,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J30" s="32"/>
@@ -4467,7 +4467,7 @@
       <c r="C31" s="49"/>
       <c r="D31" s="34"/>
       <c r="E31" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E37,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F31" s="16" t="str">
@@ -4477,7 +4477,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J31" s="32"/>
@@ -4492,7 +4492,7 @@
       <c r="C32" s="49"/>
       <c r="D32" s="34"/>
       <c r="E32" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E38,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F32" s="16" t="str">
@@ -4502,7 +4502,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J32" s="32"/>
@@ -4517,7 +4517,7 @@
       <c r="C33" s="49"/>
       <c r="D33" s="34"/>
       <c r="E33" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E39,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F33" s="16" t="str">
@@ -4527,7 +4527,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J33" s="32"/>
@@ -4542,7 +4542,7 @@
       <c r="C34" s="49"/>
       <c r="D34" s="34"/>
       <c r="E34" s="50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(pcr_dna_source=reference!E40,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F34" s="16" t="str">
@@ -4552,7 +4552,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J34" s="32"/>
@@ -4567,7 +4567,7 @@
       <c r="C35" s="49"/>
       <c r="D35" s="34"/>
       <c r="E35" s="50" t="str">
-        <f t="shared" ref="E35:E66" si="2">IF(pcr_dna_source="DNA Extract (Q5)","Direct DNA","")</f>
+        <f>IF(AND(pcr_dna_source=reference!E41,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F35" s="16" t="str">
@@ -4577,7 +4577,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J35" s="32"/>
@@ -4592,7 +4592,7 @@
       <c r="C36" s="49"/>
       <c r="D36" s="34"/>
       <c r="E36" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E42,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F36" s="16" t="str">
@@ -4602,7 +4602,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J36" s="32"/>
@@ -4617,7 +4617,7 @@
       <c r="C37" s="49"/>
       <c r="D37" s="34"/>
       <c r="E37" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E43,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F37" s="16" t="str">
@@ -4627,7 +4627,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J37" s="32"/>
@@ -4642,7 +4642,7 @@
       <c r="C38" s="49"/>
       <c r="D38" s="34"/>
       <c r="E38" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E44,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F38" s="16" t="str">
@@ -4652,7 +4652,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J38" s="32"/>
@@ -4667,7 +4667,7 @@
       <c r="C39" s="49"/>
       <c r="D39" s="34"/>
       <c r="E39" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E45,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F39" s="16" t="str">
@@ -4677,7 +4677,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J39" s="32"/>
@@ -4692,7 +4692,7 @@
       <c r="C40" s="49"/>
       <c r="D40" s="34"/>
       <c r="E40" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E46,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F40" s="16" t="str">
@@ -4702,7 +4702,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J40" s="32"/>
@@ -4717,7 +4717,7 @@
       <c r="C41" s="49"/>
       <c r="D41" s="34"/>
       <c r="E41" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E47,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F41" s="16" t="str">
@@ -4727,7 +4727,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J41" s="32"/>
@@ -4742,7 +4742,7 @@
       <c r="C42" s="49"/>
       <c r="D42" s="34"/>
       <c r="E42" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E48,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F42" s="16" t="str">
@@ -4752,7 +4752,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J42" s="32"/>
@@ -4767,7 +4767,7 @@
       <c r="C43" s="49"/>
       <c r="D43" s="34"/>
       <c r="E43" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E49,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F43" s="16" t="str">
@@ -4777,7 +4777,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J43" s="32"/>
@@ -4792,7 +4792,7 @@
       <c r="C44" s="49"/>
       <c r="D44" s="34"/>
       <c r="E44" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E50,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F44" s="16" t="str">
@@ -4802,7 +4802,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J44" s="32"/>
@@ -4817,7 +4817,7 @@
       <c r="C45" s="49"/>
       <c r="D45" s="34"/>
       <c r="E45" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E51,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F45" s="16" t="str">
@@ -4827,7 +4827,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J45" s="32"/>
@@ -4842,7 +4842,7 @@
       <c r="C46" s="49"/>
       <c r="D46" s="34"/>
       <c r="E46" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E52,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F46" s="16" t="str">
@@ -4852,7 +4852,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J46" s="32"/>
@@ -4867,7 +4867,7 @@
       <c r="C47" s="49"/>
       <c r="D47" s="34"/>
       <c r="E47" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E53,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F47" s="16" t="str">
@@ -4877,7 +4877,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J47" s="32"/>
@@ -4892,7 +4892,7 @@
       <c r="C48" s="49"/>
       <c r="D48" s="34"/>
       <c r="E48" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E54,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F48" s="16" t="str">
@@ -4902,7 +4902,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J48" s="32"/>
@@ -4917,7 +4917,7 @@
       <c r="C49" s="49"/>
       <c r="D49" s="34"/>
       <c r="E49" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E55,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F49" s="16" t="str">
@@ -4927,7 +4927,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J49" s="32"/>
@@ -4942,7 +4942,7 @@
       <c r="C50" s="49"/>
       <c r="D50" s="34"/>
       <c r="E50" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E56,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F50" s="16" t="str">
@@ -4952,7 +4952,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J50" s="32"/>
@@ -4967,7 +4967,7 @@
       <c r="C51" s="49"/>
       <c r="D51" s="34"/>
       <c r="E51" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E57,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F51" s="16" t="str">
@@ -4977,7 +4977,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J51" s="32"/>
@@ -4992,7 +4992,7 @@
       <c r="C52" s="49"/>
       <c r="D52" s="34"/>
       <c r="E52" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E58,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F52" s="16" t="str">
@@ -5002,7 +5002,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J52" s="32"/>
@@ -5017,7 +5017,7 @@
       <c r="C53" s="49"/>
       <c r="D53" s="34"/>
       <c r="E53" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E59,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F53" s="16" t="str">
@@ -5027,7 +5027,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J53" s="32"/>
@@ -5042,7 +5042,7 @@
       <c r="C54" s="49"/>
       <c r="D54" s="34"/>
       <c r="E54" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E60,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F54" s="16" t="str">
@@ -5052,7 +5052,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J54" s="32"/>
@@ -5067,7 +5067,7 @@
       <c r="C55" s="49"/>
       <c r="D55" s="34"/>
       <c r="E55" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E61,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F55" s="16" t="str">
@@ -5077,7 +5077,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J55" s="32"/>
@@ -5092,7 +5092,7 @@
       <c r="C56" s="49"/>
       <c r="D56" s="34"/>
       <c r="E56" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E62,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F56" s="16" t="str">
@@ -5102,7 +5102,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J56" s="32"/>
@@ -5117,7 +5117,7 @@
       <c r="C57" s="49"/>
       <c r="D57" s="34"/>
       <c r="E57" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E63,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F57" s="16" t="str">
@@ -5127,7 +5127,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J57" s="32"/>
@@ -5142,7 +5142,7 @@
       <c r="C58" s="49"/>
       <c r="D58" s="34"/>
       <c r="E58" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E64,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F58" s="16" t="str">
@@ -5152,7 +5152,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J58" s="32"/>
@@ -5167,7 +5167,7 @@
       <c r="C59" s="49"/>
       <c r="D59" s="34"/>
       <c r="E59" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E65,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F59" s="16" t="str">
@@ -5177,7 +5177,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J59" s="32"/>
@@ -5192,7 +5192,7 @@
       <c r="C60" s="49"/>
       <c r="D60" s="34"/>
       <c r="E60" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E66,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F60" s="16" t="str">
@@ -5202,7 +5202,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J60" s="32"/>
@@ -5217,7 +5217,7 @@
       <c r="C61" s="49"/>
       <c r="D61" s="34"/>
       <c r="E61" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E67,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F61" s="16" t="str">
@@ -5227,7 +5227,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J61" s="32"/>
@@ -5242,7 +5242,7 @@
       <c r="C62" s="49"/>
       <c r="D62" s="34"/>
       <c r="E62" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E68,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F62" s="16" t="str">
@@ -5252,7 +5252,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J62" s="32"/>
@@ -5267,7 +5267,7 @@
       <c r="C63" s="49"/>
       <c r="D63" s="34"/>
       <c r="E63" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E69,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F63" s="16" t="str">
@@ -5277,7 +5277,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J63" s="32"/>
@@ -5292,7 +5292,7 @@
       <c r="C64" s="49"/>
       <c r="D64" s="34"/>
       <c r="E64" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E70,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F64" s="16" t="str">
@@ -5302,7 +5302,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J64" s="32"/>
@@ -5317,7 +5317,7 @@
       <c r="C65" s="49"/>
       <c r="D65" s="34"/>
       <c r="E65" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E71,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F65" s="16" t="str">
@@ -5327,7 +5327,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J65" s="32"/>
@@ -5342,7 +5342,7 @@
       <c r="C66" s="49"/>
       <c r="D66" s="34"/>
       <c r="E66" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(pcr_dna_source=reference!E72,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F66" s="16" t="str">
@@ -5352,7 +5352,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J66" s="32"/>
@@ -5367,7 +5367,7 @@
       <c r="C67" s="49"/>
       <c r="D67" s="34"/>
       <c r="E67" s="50" t="str">
-        <f t="shared" ref="E67:E98" si="3">IF(pcr_dna_source="DNA Extract (Q5)","Direct DNA","")</f>
+        <f>IF(AND(pcr_dna_source=reference!E73,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F67" s="16" t="str">
@@ -5377,7 +5377,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J67" s="32"/>
@@ -5392,7 +5392,7 @@
       <c r="C68" s="49"/>
       <c r="D68" s="34"/>
       <c r="E68" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E74,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F68" s="16" t="str">
@@ -5402,7 +5402,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="4" t="str">
-        <f t="shared" ref="I68:I98" si="4">IF(OR(G68="",H68=""),"",SUM(G68*H68))</f>
+        <f t="shared" ref="I68:I98" si="1">IF(OR(G68="",H68=""),"",SUM(G68*H68))</f>
         <v/>
       </c>
       <c r="J68" s="32"/>
@@ -5417,7 +5417,7 @@
       <c r="C69" s="49"/>
       <c r="D69" s="34"/>
       <c r="E69" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E75,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F69" s="16" t="str">
@@ -5427,7 +5427,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J69" s="32"/>
@@ -5442,7 +5442,7 @@
       <c r="C70" s="49"/>
       <c r="D70" s="34"/>
       <c r="E70" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E76,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F70" s="16" t="str">
@@ -5452,7 +5452,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J70" s="32"/>
@@ -5467,7 +5467,7 @@
       <c r="C71" s="49"/>
       <c r="D71" s="34"/>
       <c r="E71" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E77,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F71" s="16" t="str">
@@ -5477,7 +5477,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J71" s="32"/>
@@ -5492,7 +5492,7 @@
       <c r="C72" s="49"/>
       <c r="D72" s="34"/>
       <c r="E72" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E78,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F72" s="16" t="str">
@@ -5502,7 +5502,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J72" s="32"/>
@@ -5517,7 +5517,7 @@
       <c r="C73" s="49"/>
       <c r="D73" s="34"/>
       <c r="E73" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E79,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F73" s="16" t="str">
@@ -5527,7 +5527,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J73" s="32"/>
@@ -5542,7 +5542,7 @@
       <c r="C74" s="49"/>
       <c r="D74" s="34"/>
       <c r="E74" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E80,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F74" s="16" t="str">
@@ -5552,7 +5552,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J74" s="32"/>
@@ -5567,7 +5567,7 @@
       <c r="C75" s="49"/>
       <c r="D75" s="34"/>
       <c r="E75" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E81,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F75" s="16" t="str">
@@ -5577,7 +5577,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J75" s="32"/>
@@ -5592,7 +5592,7 @@
       <c r="C76" s="49"/>
       <c r="D76" s="34"/>
       <c r="E76" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E82,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F76" s="16" t="str">
@@ -5602,7 +5602,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J76" s="32"/>
@@ -5617,7 +5617,7 @@
       <c r="C77" s="49"/>
       <c r="D77" s="34"/>
       <c r="E77" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E83,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F77" s="16" t="str">
@@ -5627,7 +5627,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J77" s="32"/>
@@ -5642,7 +5642,7 @@
       <c r="C78" s="49"/>
       <c r="D78" s="34"/>
       <c r="E78" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E84,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F78" s="16" t="str">
@@ -5652,7 +5652,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J78" s="32"/>
@@ -5667,7 +5667,7 @@
       <c r="C79" s="49"/>
       <c r="D79" s="34"/>
       <c r="E79" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E85,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F79" s="16" t="str">
@@ -5677,7 +5677,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J79" s="32"/>
@@ -5692,7 +5692,7 @@
       <c r="C80" s="49"/>
       <c r="D80" s="34"/>
       <c r="E80" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E86,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F80" s="16" t="str">
@@ -5702,7 +5702,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J80" s="32"/>
@@ -5717,7 +5717,7 @@
       <c r="C81" s="49"/>
       <c r="D81" s="34"/>
       <c r="E81" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E87,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F81" s="16" t="str">
@@ -5727,7 +5727,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J81" s="32"/>
@@ -5742,7 +5742,7 @@
       <c r="C82" s="49"/>
       <c r="D82" s="34"/>
       <c r="E82" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E88,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F82" s="16" t="str">
@@ -5752,7 +5752,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J82" s="32"/>
@@ -5767,7 +5767,7 @@
       <c r="C83" s="49"/>
       <c r="D83" s="34"/>
       <c r="E83" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E89,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F83" s="16" t="str">
@@ -5777,7 +5777,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J83" s="32"/>
@@ -5792,7 +5792,7 @@
       <c r="C84" s="49"/>
       <c r="D84" s="34"/>
       <c r="E84" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E90,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F84" s="16" t="str">
@@ -5802,7 +5802,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J84" s="32"/>
@@ -5817,7 +5817,7 @@
       <c r="C85" s="49"/>
       <c r="D85" s="34"/>
       <c r="E85" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E91,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F85" s="16" t="str">
@@ -5827,7 +5827,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J85" s="32"/>
@@ -5842,7 +5842,7 @@
       <c r="C86" s="49"/>
       <c r="D86" s="34"/>
       <c r="E86" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E92,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F86" s="16" t="str">
@@ -5852,7 +5852,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J86" s="32"/>
@@ -5867,7 +5867,7 @@
       <c r="C87" s="49"/>
       <c r="D87" s="34"/>
       <c r="E87" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E93,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F87" s="16" t="str">
@@ -5877,7 +5877,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J87" s="32"/>
@@ -5892,7 +5892,7 @@
       <c r="C88" s="49"/>
       <c r="D88" s="34"/>
       <c r="E88" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E94,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F88" s="16" t="str">
@@ -5902,7 +5902,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J88" s="32"/>
@@ -5917,7 +5917,7 @@
       <c r="C89" s="49"/>
       <c r="D89" s="34"/>
       <c r="E89" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E95,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F89" s="16" t="str">
@@ -5927,7 +5927,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J89" s="32"/>
@@ -5942,7 +5942,7 @@
       <c r="C90" s="49"/>
       <c r="D90" s="34"/>
       <c r="E90" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E96,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F90" s="16" t="str">
@@ -5952,7 +5952,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J90" s="32"/>
@@ -5967,7 +5967,7 @@
       <c r="C91" s="49"/>
       <c r="D91" s="34"/>
       <c r="E91" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E97,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F91" s="16" t="str">
@@ -5977,7 +5977,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J91" s="32"/>
@@ -5992,7 +5992,7 @@
       <c r="C92" s="49"/>
       <c r="D92" s="34"/>
       <c r="E92" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E98,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F92" s="16" t="str">
@@ -6002,7 +6002,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J92" s="32"/>
@@ -6017,7 +6017,7 @@
       <c r="C93" s="49"/>
       <c r="D93" s="34"/>
       <c r="E93" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E99,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F93" s="16" t="str">
@@ -6027,7 +6027,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J93" s="32"/>
@@ -6042,7 +6042,7 @@
       <c r="C94" s="49"/>
       <c r="D94" s="34"/>
       <c r="E94" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E100,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F94" s="16" t="str">
@@ -6052,7 +6052,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J94" s="32"/>
@@ -6067,7 +6067,7 @@
       <c r="C95" s="49"/>
       <c r="D95" s="34"/>
       <c r="E95" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E101,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F95" s="16" t="str">
@@ -6077,7 +6077,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J95" s="32"/>
@@ -6092,7 +6092,7 @@
       <c r="C96" s="49"/>
       <c r="D96" s="34"/>
       <c r="E96" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E102,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F96" s="16" t="str">
@@ -6102,7 +6102,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J96" s="32"/>
@@ -6117,7 +6117,7 @@
       <c r="C97" s="49"/>
       <c r="D97" s="34"/>
       <c r="E97" s="50" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E103,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F97" s="16" t="str">
@@ -6127,7 +6127,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J97" s="32"/>
@@ -6142,7 +6142,7 @@
       <c r="C98" s="49"/>
       <c r="D98" s="34"/>
       <c r="E98" s="51" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(pcr_dna_source=reference!E104,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
         <v/>
       </c>
       <c r="F98" s="26" t="str">
@@ -6152,7 +6152,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J98" s="32"/>
@@ -6260,12 +6260,12 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C3:C98">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text=" ">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text=" ">
       <formula>NOT(ISERROR(SEARCH(" ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E98 G3:H98 J3:J98">
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>COUNTIF(C3,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6324,8 +6324,8 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/resources/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/resources/templates/NOMADS_PCR_Worksheet.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC8EAE5-47D1-412A-A533-F1C90F25C896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739247D8-A81C-450D-92C1-EA227F1CDF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
     <sheet name="PCR" sheetId="1" r:id="rId2"/>
     <sheet name="Gel" sheetId="8" r:id="rId3"/>
-    <sheet name="Instructions" sheetId="9" r:id="rId4"/>
-    <sheet name="reference" sheetId="7" r:id="rId5"/>
+    <sheet name="reference" sheetId="7" r:id="rId4"/>
+    <sheet name="Instructions" sheetId="9" r:id="rId5"/>
     <sheet name="expt_metadata" sheetId="10" r:id="rId6"/>
     <sheet name="rxn_metadata" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Instructions!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Instructions!#REF!</definedName>
     <definedName name="exp_assay">Assay!$C$11</definedName>
     <definedName name="exp_date">Assay!$C$2</definedName>
     <definedName name="exp_id">Assay!$C$5</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="266">
   <si>
     <t>Assumptions</t>
   </si>
@@ -622,19 +622,325 @@
     <t>(Enter in PCR Tab)</t>
   </si>
   <si>
-    <t>Instructions:</t>
-  </si>
-  <si>
-    <t>Once PCR is completed, copy outputs from the PCR tab as follows:</t>
+    <t>(PC = PCR)</t>
+  </si>
+  <si>
+    <t>Targets:</t>
+  </si>
+  <si>
+    <t>Primers:</t>
+  </si>
+  <si>
+    <t>expt_id</t>
+  </si>
+  <si>
+    <t>expt_date</t>
+  </si>
+  <si>
+    <t>expt_user</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>expt_version</t>
+  </si>
+  <si>
+    <t>expt_type</t>
+  </si>
+  <si>
+    <t>pcr_primers</t>
+  </si>
+  <si>
+    <t>pcr_targetpanel</t>
+  </si>
+  <si>
+    <t>Assay</t>
+  </si>
+  <si>
+    <t>Gel</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>extraction_id</t>
+  </si>
+  <si>
+    <t>rxn_metadata</t>
+  </si>
+  <si>
+    <t>expt_assay</t>
+  </si>
+  <si>
+    <t>pcr_product_ngul</t>
+  </si>
+  <si>
+    <t>sWGA identifier</t>
+  </si>
+  <si>
+    <t>PCR Identifier</t>
+  </si>
+  <si>
+    <t>swga_identifier</t>
+  </si>
+  <si>
+    <t>pcr_identifier</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>expt_notes</t>
+  </si>
+  <si>
+    <t>Primer Source:</t>
+  </si>
+  <si>
+    <t>(to be able to track PCR consistency)</t>
+  </si>
+  <si>
+    <t>pcr_primersource</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>Exp Summary:</t>
+  </si>
+  <si>
+    <t>expt_summary</t>
+  </si>
+  <si>
+    <t>expt_rxns</t>
+  </si>
+  <si>
+    <t>Do NOT use any commas</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t>Batch:</t>
+  </si>
+  <si>
+    <t>(e.g. A, B, C etc)</t>
+  </si>
+  <si>
+    <t>(target panel)</t>
+  </si>
+  <si>
+    <t>(primer ids)</t>
+  </si>
+  <si>
+    <t>Filename:</t>
+  </si>
+  <si>
+    <t>(Overwrite if necessary)</t>
+  </si>
+  <si>
+    <t>User-defined</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Fiona Waiting</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>Terence Broad</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>NB. The entries above are used for dropdown options in other tabs. To add additional entries and maintain the dropdowns, do the following:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Right click on the highlighted cells and select 'insert'
+</t>
+  </si>
+  <si>
+    <t>3. Select 'Shift cells down'</t>
+  </si>
+  <si>
+    <t>4. Enter the new details into the new row</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>NOMADS_MVP</t>
+  </si>
+  <si>
+    <t>N003</t>
+  </si>
+  <si>
+    <t>Pf-03-9</t>
+  </si>
+  <si>
+    <t>pcr_enzyme</t>
+  </si>
+  <si>
+    <t>KAPA</t>
+  </si>
+  <si>
+    <t>Changelog from previous version</t>
+  </si>
+  <si>
+    <t>DNA Source:</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Enzyme</t>
+  </si>
+  <si>
+    <t>Q5 Master Mix</t>
+  </si>
+  <si>
+    <t>Enzyme Vol</t>
+  </si>
+  <si>
+    <t>Template Volume</t>
+  </si>
+  <si>
+    <t>Primer Pool vol</t>
+  </si>
+  <si>
+    <t>dNTP</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>SWGA product (KAPA)</t>
+  </si>
+  <si>
+    <t>DNA Extract (Q5)</t>
+  </si>
+  <si>
+    <t>Project A</t>
+  </si>
+  <si>
+    <t>Project B</t>
+  </si>
+  <si>
+    <t>Project C</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>There are two tabs to complete (green), two tabs for exporting data (red) and one tab (orange) for reference values:</t>
+  </si>
+  <si>
+    <t>A simplified list of assay steps / components including master mix calculations and plate layouts</t>
+  </si>
+  <si>
+    <t>Contains look-up tables, assumptions etc. Edit the entries in green according to your needs</t>
+  </si>
+  <si>
+    <t>exp_metadata</t>
+  </si>
+  <si>
+    <t>Contains experiment level metadata for export (NO EDITING)</t>
+  </si>
+  <si>
+    <t>Contains rxn level metadata for export (NO EDITING)</t>
+  </si>
+  <si>
+    <t>To prevent inadvertent loss of data, cells are protected from editing.</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Please contact the NOMADS team if any changes need to be made to the template.</t>
+  </si>
+  <si>
+    <t>This template is to be used to record PCR experiments as part of a NOMADS sequencing run.</t>
+  </si>
+  <si>
+    <t>Sample level details associated with the PCR experiment</t>
   </si>
   <si>
     <r>
-      <t>1. Filter '</t>
+      <t xml:space="preserve">1. Enter all experimental and sample details on the </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Assay'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'PCR'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tabs before / during the experiment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   - Filter '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -643,7 +949,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="24"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -653,7 +959,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="24"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -662,7 +968,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="24"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -671,355 +977,183 @@
     </r>
   </si>
   <si>
-    <t>(PC = PCR)</t>
-  </si>
-  <si>
-    <t>Targets:</t>
-  </si>
-  <si>
-    <t>Primers:</t>
-  </si>
-  <si>
-    <t>expt_id</t>
-  </si>
-  <si>
-    <t>expt_date</t>
-  </si>
-  <si>
-    <t>expt_user</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>expt_version</t>
-  </si>
-  <si>
-    <t>expt_type</t>
-  </si>
-  <si>
-    <t>pcr_primers</t>
-  </si>
-  <si>
-    <t>pcr_targetpanel</t>
-  </si>
-  <si>
-    <t>This template is to be used to record PCR experiments as part of a NOMADS sequencing run. There are three tabs to complete:</t>
-  </si>
-  <si>
-    <t>Assay</t>
-  </si>
-  <si>
-    <t>Gel</t>
-  </si>
-  <si>
-    <t>A simplified list of assay steps / componentes including master mix calculations and plate layouts</t>
-  </si>
-  <si>
-    <t>Sample level details associated with the PCR procedure</t>
-  </si>
-  <si>
-    <t>Storage location for the post-PCR  annotated gel picture</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>The following tabs should not need to be altered, except for potentially adding user names</t>
-  </si>
-  <si>
-    <t>Contains experiment level metadata for export</t>
-  </si>
-  <si>
-    <t>sample_id</t>
-  </si>
-  <si>
-    <t>extraction_id</t>
-  </si>
-  <si>
-    <t>Contains rxn level metadata for export</t>
-  </si>
-  <si>
-    <t>rxn_metadata</t>
-  </si>
-  <si>
-    <t>expt_assay</t>
-  </si>
-  <si>
-    <t>pcr_product_ngul</t>
-  </si>
-  <si>
-    <t>sWGA identifier</t>
-  </si>
-  <si>
-    <t>PCR Identifier</t>
-  </si>
-  <si>
-    <t>swga_identifier</t>
-  </si>
-  <si>
-    <t>pcr_identifier</t>
+    <t xml:space="preserve">   - Copy the first six columns* for all rows that are selected for PCR</t>
   </si>
   <si>
     <r>
-      <t>2. Copy all '</t>
+      <t xml:space="preserve">  * </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Sample Information</t>
+      <t>'Sample ID'</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>', '</t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>sWGA Identifier</t>
+      <t>'Extraction ID',</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>' and '</t>
+      <t xml:space="preserve"> '</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>PCR Identifier</t>
+      <t>sWGA Identifier, 'PCR Identifier, 'Qubit PCR [DNA] (ng/µl)'</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>' columns and paste into the library worksheet</t>
-    </r>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>expt_notes</t>
-  </si>
-  <si>
-    <t>Primer Source:</t>
-  </si>
-  <si>
-    <t>(to be able to track PCR consistency)</t>
-  </si>
-  <si>
-    <t>pcr_primersource</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Exp Summary:</t>
-  </si>
-  <si>
-    <t>expt_summary</t>
-  </si>
-  <si>
-    <t>expt_rxns</t>
-  </si>
-  <si>
-    <t>Do NOT use any commas</t>
-  </si>
-  <si>
-    <t>Project:</t>
-  </si>
-  <si>
-    <t>Batch:</t>
-  </si>
-  <si>
-    <t>(e.g. A, B, C etc)</t>
-  </si>
-  <si>
-    <t>(target panel)</t>
-  </si>
-  <si>
-    <t>(primer ids)</t>
-  </si>
-  <si>
-    <t>Filename:</t>
-  </si>
-  <si>
-    <t>(Overwrite if necessary)</t>
-  </si>
-  <si>
-    <t>expt_metadata</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All experimental metadata can be extracted to a csv file for nomadic pipeline ingestion using the </t>
+      <t xml:space="preserve"> and </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>warehouse.py</t>
+      <t xml:space="preserve"> 'PCR dilution factor'</t>
+    </r>
+  </si>
+  <si>
+    <t>Storage location for the post-PCR  gel picture</t>
+  </si>
+  <si>
+    <t>Missing values evaluate to empty cells in metadata tabs</t>
+  </si>
+  <si>
+    <t>Sheets protected to prevent users inadvertantly overwriting calculations</t>
+  </si>
+  <si>
+    <t>1. Select a complete entry i.e. for names you would highlight two cells e.g. M5 and N5</t>
+  </si>
+  <si>
+    <t>2. If there was no sWGA step, enter  'no swga' in the 'sWGA identifier' column</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Run samples on a gel and copy to the </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Gel'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab. If Gel is not directly annotated, add details in provided column</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Once experiment is complete, copy outputs from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> script in this repository:</t>
+      <t>'PCR'</t>
     </r>
-  </si>
-  <si>
-    <t>User-defined</t>
-  </si>
-  <si>
-    <t>John Smith</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>Fiona Waiting</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>Terence Broad</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>NB. The entries above are used for dropdown options in other tabs. To add additional entries and maintain the dropdowns, do the following:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Right click on the highlighted cells and select 'insert'
-</t>
-  </si>
-  <si>
-    <t>3. Select 'Shift cells down'</t>
-  </si>
-  <si>
-    <t>4. Enter the new details into the new row</t>
-  </si>
-  <si>
-    <t>contains look-up tables, assumptions etc. Edit the entries in green according to your needs</t>
-  </si>
-  <si>
-    <t>1. Select a complete entry i.e. for names you would highlight two cells e.g. I5 and J5</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>NOMADS_MVP</t>
-  </si>
-  <si>
-    <t>N003</t>
-  </si>
-  <si>
-    <t>Pf-03-9</t>
-  </si>
-  <si>
-    <t>pcr_enzyme</t>
-  </si>
-  <si>
-    <t>KAPA</t>
-  </si>
-  <si>
-    <t>Changelog from previous version</t>
-  </si>
-  <si>
-    <t>Added selection of PCR enzyme and capture to expt_metadata</t>
-  </si>
-  <si>
-    <t>Addded MVP to list of assays</t>
-  </si>
-  <si>
-    <t>DNA Source:</t>
-  </si>
-  <si>
-    <t>Add DNA Source info</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>Enzyme</t>
-  </si>
-  <si>
-    <t>Q5 Master Mix</t>
-  </si>
-  <si>
-    <t>Enzyme Vol</t>
-  </si>
-  <si>
-    <t>Template Volume</t>
-  </si>
-  <si>
-    <t>Primer Pool vol</t>
-  </si>
-  <si>
-    <t>dNTP</t>
-  </si>
-  <si>
-    <t>Buffer</t>
-  </si>
-  <si>
-    <t>SWGA product (KAPA)</t>
-  </si>
-  <si>
-    <t>DNA Extract (Q5)</t>
-  </si>
-  <si>
-    <t>Changed all CONCAT refs to CONCATENATE for translations</t>
-  </si>
-  <si>
-    <t>Project A</t>
-  </si>
-  <si>
-    <t>Project B</t>
-  </si>
-  <si>
-    <t>Project C</t>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tab as follows:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. In the appropriate sequencing template </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Paste Values'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> into the same corresponding columns</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. All experimental data can now be extracted using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>warehouse</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1031,7 +1165,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1150,14 +1284,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <u/>
+      <sz val="36"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1165,13 +1307,50 @@
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1241,6 +1420,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,16 +1593,13 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1466,15 +1648,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1484,27 +1657,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1520,8 +1678,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1529,27 +1685,14 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1560,6 +1703,166 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1581,95 +1884,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1697,30 +1916,6 @@
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1855,6 +2050,7 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1893,6 +2089,7 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1912,6 +2109,7 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -1938,6 +2136,31 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1956,7 +2179,7 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1970,11 +2193,12 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1988,10 +2212,11 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -2003,6 +2228,7 @@
           <color auto="1"/>
         </bottom>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2020,6 +2246,7 @@
         <vertical/>
         <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2101,18 +2328,16 @@
     <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="0">
-      <calculatedColumnFormula>IF(AND(pcr_dna_source=reference!E9,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="19">
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="18">
       <calculatedColumnFormula>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="16">
+    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="15">
       <calculatedColumnFormula>IF(OR(G3="",H3=""),"",SUM(G3*H3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2130,12 +2355,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="E2:G5" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2162,43 +2387,43 @@
   <autoFilter ref="A1:M2" xr:uid="{1F7724E8-27D2-44E9-85B4-57378D47D280}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{CF92ACF9-25F8-4BAA-B9F1-567A722EDD10}" name="expt_id">
-      <calculatedColumnFormula>exp_id</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(exp_id)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{6EA97D5F-2525-4210-8AAC-60A494A0DFF1}" name="expt_date">
-      <calculatedColumnFormula>exp_date</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(exp_date)=0,"",exp_date)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{37EAA599-0FB5-4C4E-A2E5-CF226F56282F}" name="expt_user">
-      <calculatedColumnFormula>exp_user</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(exp_user)=0,"",exp_user)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{EB901222-05A0-4B82-8F19-7C8FB81E6845}" name="expt_type">
-      <calculatedColumnFormula>exp_type</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(exp_type)=0,"",exp_type)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{C3E991BE-2EA8-4C17-B604-89438F1D8ACB}" name="expt_version">
-      <calculatedColumnFormula>exp_version</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(exp_version)=0,"",exp_version)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{5CF880EF-3D5D-4639-8388-68004687285B}" name="expt_assay">
-      <calculatedColumnFormula>exp_assay</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(exp_assay)=0,"",exp_assay)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{4DBD4096-EC40-4740-9004-468D1BAFC9A3}" name="expt_notes">
-      <calculatedColumnFormula>exp_notes</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(exp_notes)=0,"",exp_notes)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{2FE13B56-1ED7-4086-B940-91993E2B4501}" name="expt_summary">
-      <calculatedColumnFormula>exp_summary</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(exp_summary)=0,"",exp_summary)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{46F54692-7EB9-4C47-A454-DE67C0C7DE8A}" name="expt_rxns">
-      <calculatedColumnFormula>exp_rxns</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(exp_rxns)=0,"",exp_rxns)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{FE7702DC-D303-43C9-B4DB-2CFBAD430766}" name="pcr_primers">
-      <calculatedColumnFormula>pcr_primers</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(pcr_primers)=0,"",pcr_primers)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{622177FB-F0FE-41FA-AB87-E15E9ECEE0B9}" name="pcr_primersource">
-      <calculatedColumnFormula>pcr_primersource</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(pcr_primersource)=0,"",pcr_primersource)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{5C17D014-189E-43E2-A899-4574390B7A58}" name="pcr_targetpanel">
-      <calculatedColumnFormula>pcr_targetpanel</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(pcr_targetpanel)=0,"",pcr_targetpanel)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{4786D324-56A9-420B-A7CB-8083E29E50BD}" name="pcr_enzyme">
-      <calculatedColumnFormula>pcr_enzyme</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(pcr_enzyme=0,"",pcr_enzyme)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2209,19 +2434,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}" name="tbl_rxn_metadata" displayName="tbl_rxn_metadata" ref="A1:F97" totalsRowShown="0">
   <autoFilter ref="A1:F97" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="8">
       <calculatedColumnFormula>IF(LEN(PCR!C3),PCR!C3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="7">
       <calculatedColumnFormula>IF(LEN(PCR!D3),PCR!D3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="6">
       <calculatedColumnFormula>IF(LEN(PCR!E3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="5">
       <calculatedColumnFormula>IF(LEN(PCR!E3),PCR!E3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="4">
       <calculatedColumnFormula>IF(LEN(PCR!F3),PCR!F3,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{4845F373-7505-41AE-BC4F-278230D9F085}" name="pcr_product_ngul">
@@ -2541,497 +2766,497 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="9" style="8" customWidth="1"/>
+    <col min="1" max="8" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="71" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="K2" s="63" t="s">
+      <c r="H2" s="69"/>
+      <c r="K2" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="63"/>
+      <c r="L2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
       <c r="G3" t="s">
         <v>156</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="61"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="40" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="62"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="78" t="str">
+      <c r="B5" s="73"/>
+      <c r="C5" s="92" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("PC",VLOOKUP(C3,reference!M3:N5,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="K5" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="L5" s="68"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" s="101"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="79" t="str">
+      <c r="B6" s="73"/>
+      <c r="C6" s="93" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_PCR_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="37"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="28"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="A7" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
       <c r="G7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
+      <c r="A8" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
       <c r="G8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="86" t="str">
+      <c r="A9" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="78" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="21" t="s">
-        <v>217</v>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="20" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92" t="str">
+      <c r="A10" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
       <c r="G11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="81" t="str">
+      <c r="A12" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="84" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="21" t="s">
-        <v>214</v>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="20" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="81" t="str">
+      <c r="A13" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="84" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="21" t="s">
-        <v>215</v>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="20" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="21" t="s">
-        <v>204</v>
+      <c r="A14" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="20" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="21"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
+      <c r="A16" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>0.1</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
+      <c r="G19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="94" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94" t="str">
+      <c r="E20" s="67"/>
+      <c r="F20" s="67" t="str">
         <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G20" s="94"/>
-      <c r="H20" s="9"/>
-      <c r="J20" s="82" t="s">
+      <c r="G20" s="67"/>
+      <c r="H20" s="8"/>
+      <c r="J20" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="82"/>
-      <c r="L20" s="13" t="s">
+      <c r="K20" s="85"/>
+      <c r="L20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="67">
+      <c r="A21" s="76">
         <f>pcr_dna_source</f>
         <v>0</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="66">
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="68">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="95" t="s">
+      <c r="E21" s="68"/>
+      <c r="F21" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="95"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="64">
+      <c r="G21" s="66"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="99">
         <v>93</v>
       </c>
-      <c r="K21" s="64"/>
-      <c r="L21" s="11" t="s">
+      <c r="K21" s="99"/>
+      <c r="L21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="11"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="90">
+      <c r="A22" s="74">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],3,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="66">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="68">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],4,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="89">
+      <c r="E22" s="68"/>
+      <c r="F22" s="65">
         <f>SUM(D22*exp_rxns*(1+$D$19))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="89"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="65">
+      <c r="G22" s="65"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="100">
         <v>98</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="L22" s="11" t="s">
+      <c r="K22" s="100"/>
+      <c r="L22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="69" t="s">
+      <c r="M22" s="102" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="90" t="str">
+      <c r="A23" s="74" t="str">
         <f>IF(D23=0,"-","10mM dNTPs")</f>
         <v>-</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="66">
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="68">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],5,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="89" t="str">
+      <c r="E23" s="68"/>
+      <c r="F23" s="65" t="str">
         <f>IF(D23=0,"",SUM(D23*exp_rxns*(1+$D$19)))</f>
         <v/>
       </c>
-      <c r="G23" s="89"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="66">
+      <c r="G23" s="65"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="68">
         <v>50</v>
       </c>
-      <c r="K23" s="66"/>
-      <c r="L23" s="11" t="s">
+      <c r="K23" s="68"/>
+      <c r="L23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="69"/>
+      <c r="M23" s="102"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="str">
+      <c r="A24" s="74" t="str">
         <f>IF(D24=0,"-","Buffer")</f>
         <v>-</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="66">
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="68">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="89" t="str">
+      <c r="E24" s="68"/>
+      <c r="F24" s="65" t="str">
         <f>IF(D24=0,"",SUM(D24*exp_rxns*(1+$D$19)))</f>
         <v/>
       </c>
-      <c r="G24" s="89"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="67">
+      <c r="G24" s="65"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="76">
         <v>60</v>
       </c>
-      <c r="K24" s="67"/>
-      <c r="L24" s="11" t="s">
+      <c r="K24" s="76"/>
+      <c r="L24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="69"/>
+      <c r="M24" s="102"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="66">
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="68">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],7,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="89" t="str">
+      <c r="E25" s="68"/>
+      <c r="F25" s="65" t="str">
         <f>IF(D25=0,"",SUM(D25*exp_rxns*(1+$D$19)))</f>
         <v/>
       </c>
-      <c r="G25" s="89"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="66">
+      <c r="G25" s="65"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="68">
         <v>60</v>
       </c>
-      <c r="K25" s="66"/>
-      <c r="L25" s="11" t="s">
+      <c r="K25" s="68"/>
+      <c r="L25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="11"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90">
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74">
         <f>SUM(25-SUM(D21:E25))</f>
         <v>25</v>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="89">
+      <c r="E26" s="74"/>
+      <c r="F26" s="65">
         <f>SUM(D26*exp_rxns*(1+$D$19))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="89"/>
-      <c r="H26" s="9"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="8"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="88">
+      <c r="D27" s="80">
         <f>SUM(D21:D26)</f>
         <v>25</v>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="15" t="str">
+      <c r="E27" s="80"/>
+      <c r="F27" s="14" t="str">
         <f>CONCATENATE("Add ",SUM(D22:D26)," µl of MM to each well")</f>
         <v>Add 25 µl of MM to each well</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>162</v>
       </c>
       <c r="B28"/>
@@ -3041,53 +3266,53 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="9"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="9"/>
-      <c r="K30" s="60" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="8"/>
+      <c r="K30" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B32"/>
@@ -3100,477 +3325,522 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33" s="45">
+      <c r="B33" s="34">
         <v>1</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="34">
         <v>2</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="34">
         <v>3</v>
       </c>
-      <c r="E33" s="45">
+      <c r="E33" s="34">
         <v>4</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="34">
         <v>5</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="34">
         <v>6</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="34">
         <v>7</v>
       </c>
-      <c r="I33" s="45">
+      <c r="I33" s="34">
         <v>8</v>
       </c>
-      <c r="J33" s="45">
+      <c r="J33" s="34">
         <v>9</v>
       </c>
-      <c r="K33" s="45">
+      <c r="K33" s="34">
         <v>10</v>
       </c>
-      <c r="L33" s="45">
+      <c r="L33" s="34">
         <v>11</v>
       </c>
-      <c r="M33" s="45">
+      <c r="M33" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="44" t="str">
+      <c r="B34" s="33" t="str">
         <f>IF(ISBLANK(PCR!D3), "",PCR!D3)</f>
         <v/>
       </c>
-      <c r="C34" s="44" t="str">
+      <c r="C34" s="33" t="str">
         <f>IF(ISBLANK(PCR!D11), "",PCR!D11)</f>
         <v/>
       </c>
-      <c r="D34" s="44" t="str">
+      <c r="D34" s="33" t="str">
         <f>IF(ISBLANK(PCR!D19), "",PCR!D19)</f>
         <v/>
       </c>
-      <c r="E34" s="44" t="str">
+      <c r="E34" s="33" t="str">
         <f>IF(ISBLANK(PCR!D27), "",PCR!D27)</f>
         <v/>
       </c>
-      <c r="F34" s="44" t="str">
+      <c r="F34" s="33" t="str">
         <f>IF(ISBLANK(PCR!D35), "",PCR!D35)</f>
         <v/>
       </c>
-      <c r="G34" s="44" t="str">
+      <c r="G34" s="33" t="str">
         <f>IF(ISBLANK(PCR!D43), "",PCR!D43)</f>
         <v/>
       </c>
-      <c r="H34" s="44" t="str">
+      <c r="H34" s="33" t="str">
         <f>IF(ISBLANK(PCR!D51), "",PCR!D51)</f>
         <v/>
       </c>
-      <c r="I34" s="44" t="str">
+      <c r="I34" s="33" t="str">
         <f>IF(ISBLANK(PCR!D59), "",PCR!D59)</f>
         <v/>
       </c>
-      <c r="J34" s="44" t="str">
+      <c r="J34" s="33" t="str">
         <f>IF(ISBLANK(PCR!D67), "",PCR!D67)</f>
         <v/>
       </c>
-      <c r="K34" s="44" t="str">
+      <c r="K34" s="33" t="str">
         <f>IF(ISBLANK(PCR!D75), "",PCR!D75)</f>
         <v/>
       </c>
-      <c r="L34" s="44" t="str">
+      <c r="L34" s="33" t="str">
         <f>IF(ISBLANK(PCR!D83), "",PCR!D83)</f>
         <v/>
       </c>
-      <c r="M34" s="44" t="str">
+      <c r="M34" s="33" t="str">
         <f>IF(ISBLANK(PCR!D91), "",PCR!D91)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="44" t="str">
+      <c r="B35" s="33" t="str">
         <f>IF(ISBLANK(PCR!D4), "",PCR!D4)</f>
         <v/>
       </c>
-      <c r="C35" s="44" t="str">
+      <c r="C35" s="33" t="str">
         <f>IF(ISBLANK(PCR!D12), "",PCR!D12)</f>
         <v/>
       </c>
-      <c r="D35" s="44" t="str">
+      <c r="D35" s="33" t="str">
         <f>IF(ISBLANK(PCR!D20), "",PCR!D20)</f>
         <v/>
       </c>
-      <c r="E35" s="44" t="str">
+      <c r="E35" s="33" t="str">
         <f>IF(ISBLANK(PCR!D28), "",PCR!D28)</f>
         <v/>
       </c>
-      <c r="F35" s="44" t="str">
+      <c r="F35" s="33" t="str">
         <f>IF(ISBLANK(PCR!D36), "",PCR!D36)</f>
         <v/>
       </c>
-      <c r="G35" s="44" t="str">
+      <c r="G35" s="33" t="str">
         <f>IF(ISBLANK(PCR!D44), "",PCR!D44)</f>
         <v/>
       </c>
-      <c r="H35" s="44" t="str">
+      <c r="H35" s="33" t="str">
         <f>IF(ISBLANK(PCR!D52), "",PCR!D52)</f>
         <v/>
       </c>
-      <c r="I35" s="44" t="str">
+      <c r="I35" s="33" t="str">
         <f>IF(ISBLANK(PCR!D60), "",PCR!D60)</f>
         <v/>
       </c>
-      <c r="J35" s="44" t="str">
+      <c r="J35" s="33" t="str">
         <f>IF(ISBLANK(PCR!D68), "",PCR!D68)</f>
         <v/>
       </c>
-      <c r="K35" s="44" t="str">
+      <c r="K35" s="33" t="str">
         <f>IF(ISBLANK(PCR!D76), "",PCR!D76)</f>
         <v/>
       </c>
-      <c r="L35" s="44" t="str">
+      <c r="L35" s="33" t="str">
         <f>IF(ISBLANK(PCR!D84), "",PCR!D84)</f>
         <v/>
       </c>
-      <c r="M35" s="44" t="str">
+      <c r="M35" s="33" t="str">
         <f>IF(ISBLANK(PCR!D92), "",PCR!D92)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="44" t="str">
+      <c r="B36" s="33" t="str">
         <f>IF(ISBLANK(PCR!D5), "",PCR!D5)</f>
         <v/>
       </c>
-      <c r="C36" s="44" t="str">
+      <c r="C36" s="33" t="str">
         <f>IF(ISBLANK(PCR!D13), "",PCR!D13)</f>
         <v/>
       </c>
-      <c r="D36" s="44" t="str">
+      <c r="D36" s="33" t="str">
         <f>IF(ISBLANK(PCR!D21), "",PCR!D21)</f>
         <v/>
       </c>
-      <c r="E36" s="44" t="str">
+      <c r="E36" s="33" t="str">
         <f>IF(ISBLANK(PCR!D29), "",PCR!D29)</f>
         <v/>
       </c>
-      <c r="F36" s="44" t="str">
+      <c r="F36" s="33" t="str">
         <f>IF(ISBLANK(PCR!D37), "",PCR!D37)</f>
         <v/>
       </c>
-      <c r="G36" s="44" t="str">
+      <c r="G36" s="33" t="str">
         <f>IF(ISBLANK(PCR!D45), "",PCR!D45)</f>
         <v/>
       </c>
-      <c r="H36" s="44" t="str">
+      <c r="H36" s="33" t="str">
         <f>IF(ISBLANK(PCR!D53), "",PCR!D53)</f>
         <v/>
       </c>
-      <c r="I36" s="44" t="str">
+      <c r="I36" s="33" t="str">
         <f>IF(ISBLANK(PCR!D61), "",PCR!D61)</f>
         <v/>
       </c>
-      <c r="J36" s="44" t="str">
+      <c r="J36" s="33" t="str">
         <f>IF(ISBLANK(PCR!D69), "",PCR!D69)</f>
         <v/>
       </c>
-      <c r="K36" s="44" t="str">
+      <c r="K36" s="33" t="str">
         <f>IF(ISBLANK(PCR!D77), "",PCR!D77)</f>
         <v/>
       </c>
-      <c r="L36" s="44" t="str">
+      <c r="L36" s="33" t="str">
         <f>IF(ISBLANK(PCR!D85), "",PCR!D85)</f>
         <v/>
       </c>
-      <c r="M36" s="44" t="str">
+      <c r="M36" s="33" t="str">
         <f>IF(ISBLANK(PCR!D93), "",PCR!D93)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="44" t="str">
+      <c r="B37" s="33" t="str">
         <f>IF(ISBLANK(PCR!D6), "",PCR!D6)</f>
         <v/>
       </c>
-      <c r="C37" s="44" t="str">
+      <c r="C37" s="33" t="str">
         <f>IF(ISBLANK(PCR!D14), "",PCR!D14)</f>
         <v/>
       </c>
-      <c r="D37" s="44" t="str">
+      <c r="D37" s="33" t="str">
         <f>IF(ISBLANK(PCR!D22), "",PCR!D22)</f>
         <v/>
       </c>
-      <c r="E37" s="44" t="str">
+      <c r="E37" s="33" t="str">
         <f>IF(ISBLANK(PCR!D30), "",PCR!D30)</f>
         <v/>
       </c>
-      <c r="F37" s="44" t="str">
+      <c r="F37" s="33" t="str">
         <f>IF(ISBLANK(PCR!D38), "",PCR!D38)</f>
         <v/>
       </c>
-      <c r="G37" s="44" t="str">
+      <c r="G37" s="33" t="str">
         <f>IF(ISBLANK(PCR!D46), "",PCR!D46)</f>
         <v/>
       </c>
-      <c r="H37" s="44" t="str">
+      <c r="H37" s="33" t="str">
         <f>IF(ISBLANK(PCR!D54), "",PCR!D54)</f>
         <v/>
       </c>
-      <c r="I37" s="44" t="str">
+      <c r="I37" s="33" t="str">
         <f>IF(ISBLANK(PCR!D62), "",PCR!D62)</f>
         <v/>
       </c>
-      <c r="J37" s="44" t="str">
+      <c r="J37" s="33" t="str">
         <f>IF(ISBLANK(PCR!D70), "",PCR!D70)</f>
         <v/>
       </c>
-      <c r="K37" s="44" t="str">
+      <c r="K37" s="33" t="str">
         <f>IF(ISBLANK(PCR!D78), "",PCR!D78)</f>
         <v/>
       </c>
-      <c r="L37" s="44" t="str">
+      <c r="L37" s="33" t="str">
         <f>IF(ISBLANK(PCR!D86), "",PCR!D86)</f>
         <v/>
       </c>
-      <c r="M37" s="44" t="str">
+      <c r="M37" s="33" t="str">
         <f>IF(ISBLANK(PCR!D94), "",PCR!D94)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="44" t="str">
+      <c r="B38" s="33" t="str">
         <f>IF(ISBLANK(PCR!D7), "",PCR!D7)</f>
         <v/>
       </c>
-      <c r="C38" s="44" t="str">
+      <c r="C38" s="33" t="str">
         <f>IF(ISBLANK(PCR!D15), "",PCR!D15)</f>
         <v/>
       </c>
-      <c r="D38" s="44" t="str">
+      <c r="D38" s="33" t="str">
         <f>IF(ISBLANK(PCR!D23), "",PCR!D23)</f>
         <v/>
       </c>
-      <c r="E38" s="44" t="str">
+      <c r="E38" s="33" t="str">
         <f>IF(ISBLANK(PCR!D31), "",PCR!D31)</f>
         <v/>
       </c>
-      <c r="F38" s="44" t="str">
+      <c r="F38" s="33" t="str">
         <f>IF(ISBLANK(PCR!D39), "",PCR!D39)</f>
         <v/>
       </c>
-      <c r="G38" s="44" t="str">
+      <c r="G38" s="33" t="str">
         <f>IF(ISBLANK(PCR!D47), "",PCR!D47)</f>
         <v/>
       </c>
-      <c r="H38" s="44" t="str">
+      <c r="H38" s="33" t="str">
         <f>IF(ISBLANK(PCR!D55), "",PCR!D55)</f>
         <v/>
       </c>
-      <c r="I38" s="44" t="str">
+      <c r="I38" s="33" t="str">
         <f>IF(ISBLANK(PCR!D63), "",PCR!D63)</f>
         <v/>
       </c>
-      <c r="J38" s="44" t="str">
+      <c r="J38" s="33" t="str">
         <f>IF(ISBLANK(PCR!D71), "",PCR!D71)</f>
         <v/>
       </c>
-      <c r="K38" s="44" t="str">
+      <c r="K38" s="33" t="str">
         <f>IF(ISBLANK(PCR!D79), "",PCR!D79)</f>
         <v/>
       </c>
-      <c r="L38" s="44" t="str">
+      <c r="L38" s="33" t="str">
         <f>IF(ISBLANK(PCR!D87), "",PCR!D87)</f>
         <v/>
       </c>
-      <c r="M38" s="44" t="str">
+      <c r="M38" s="33" t="str">
         <f>IF(ISBLANK(PCR!D95), "",PCR!D95)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="44" t="str">
+      <c r="B39" s="33" t="str">
         <f>IF(ISBLANK(PCR!D8), "",PCR!D8)</f>
         <v/>
       </c>
-      <c r="C39" s="44" t="str">
+      <c r="C39" s="33" t="str">
         <f>IF(ISBLANK(PCR!D16), "",PCR!D16)</f>
         <v/>
       </c>
-      <c r="D39" s="44" t="str">
+      <c r="D39" s="33" t="str">
         <f>IF(ISBLANK(PCR!D24), "",PCR!D24)</f>
         <v/>
       </c>
-      <c r="E39" s="44" t="str">
+      <c r="E39" s="33" t="str">
         <f>IF(ISBLANK(PCR!D32), "",PCR!D32)</f>
         <v/>
       </c>
-      <c r="F39" s="44" t="str">
+      <c r="F39" s="33" t="str">
         <f>IF(ISBLANK(PCR!D40), "",PCR!D40)</f>
         <v/>
       </c>
-      <c r="G39" s="44" t="str">
+      <c r="G39" s="33" t="str">
         <f>IF(ISBLANK(PCR!D48), "",PCR!D48)</f>
         <v/>
       </c>
-      <c r="H39" s="44" t="str">
+      <c r="H39" s="33" t="str">
         <f>IF(ISBLANK(PCR!D56), "",PCR!D56)</f>
         <v/>
       </c>
-      <c r="I39" s="44" t="str">
+      <c r="I39" s="33" t="str">
         <f>IF(ISBLANK(PCR!D64), "",PCR!D64)</f>
         <v/>
       </c>
-      <c r="J39" s="44" t="str">
+      <c r="J39" s="33" t="str">
         <f>IF(ISBLANK(PCR!D72), "",PCR!D72)</f>
         <v/>
       </c>
-      <c r="K39" s="44" t="str">
+      <c r="K39" s="33" t="str">
         <f>IF(ISBLANK(PCR!D80), "",PCR!D80)</f>
         <v/>
       </c>
-      <c r="L39" s="44" t="str">
+      <c r="L39" s="33" t="str">
         <f>IF(ISBLANK(PCR!D88), "",PCR!D88)</f>
         <v/>
       </c>
-      <c r="M39" s="44" t="str">
+      <c r="M39" s="33" t="str">
         <f>IF(ISBLANK(PCR!D96), "",PCR!D96)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="44" t="str">
+      <c r="B40" s="33" t="str">
         <f>IF(ISBLANK(PCR!D9), "",PCR!D9)</f>
         <v/>
       </c>
-      <c r="C40" s="44" t="str">
+      <c r="C40" s="33" t="str">
         <f>IF(ISBLANK(PCR!D17), "",PCR!D17)</f>
         <v/>
       </c>
-      <c r="D40" s="44" t="str">
+      <c r="D40" s="33" t="str">
         <f>IF(ISBLANK(PCR!D25), "",PCR!D25)</f>
         <v/>
       </c>
-      <c r="E40" s="44" t="str">
+      <c r="E40" s="33" t="str">
         <f>IF(ISBLANK(PCR!D33), "",PCR!D33)</f>
         <v/>
       </c>
-      <c r="F40" s="44" t="str">
+      <c r="F40" s="33" t="str">
         <f>IF(ISBLANK(PCR!D41), "",PCR!D41)</f>
         <v/>
       </c>
-      <c r="G40" s="44" t="str">
+      <c r="G40" s="33" t="str">
         <f>IF(ISBLANK(PCR!D49), "",PCR!D49)</f>
         <v/>
       </c>
-      <c r="H40" s="44" t="str">
+      <c r="H40" s="33" t="str">
         <f>IF(ISBLANK(PCR!D57), "",PCR!D57)</f>
         <v/>
       </c>
-      <c r="I40" s="44" t="str">
+      <c r="I40" s="33" t="str">
         <f>IF(ISBLANK(PCR!D65), "",PCR!D65)</f>
         <v/>
       </c>
-      <c r="J40" s="44" t="str">
+      <c r="J40" s="33" t="str">
         <f>IF(ISBLANK(PCR!D73), "",PCR!D73)</f>
         <v/>
       </c>
-      <c r="K40" s="44" t="str">
+      <c r="K40" s="33" t="str">
         <f>IF(ISBLANK(PCR!D81), "",PCR!D81)</f>
         <v/>
       </c>
-      <c r="L40" s="44" t="str">
+      <c r="L40" s="33" t="str">
         <f>IF(ISBLANK(PCR!D89), "",PCR!D89)</f>
         <v/>
       </c>
-      <c r="M40" s="44" t="str">
+      <c r="M40" s="33" t="str">
         <f>IF(ISBLANK(PCR!D97), "",PCR!D97)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="44" t="str">
+      <c r="B41" s="33" t="str">
         <f>IF(ISBLANK(PCR!D10), "",PCR!D10)</f>
         <v/>
       </c>
-      <c r="C41" s="44" t="str">
+      <c r="C41" s="33" t="str">
         <f>IF(ISBLANK(PCR!D18), "",PCR!D18)</f>
         <v/>
       </c>
-      <c r="D41" s="44" t="str">
+      <c r="D41" s="33" t="str">
         <f>IF(ISBLANK(PCR!D26), "",PCR!D26)</f>
         <v/>
       </c>
-      <c r="E41" s="44" t="str">
+      <c r="E41" s="33" t="str">
         <f>IF(ISBLANK(PCR!D34), "",PCR!D34)</f>
         <v/>
       </c>
-      <c r="F41" s="44" t="str">
+      <c r="F41" s="33" t="str">
         <f>IF(ISBLANK(PCR!D42), "",PCR!D42)</f>
         <v/>
       </c>
-      <c r="G41" s="44" t="str">
+      <c r="G41" s="33" t="str">
         <f>IF(ISBLANK(PCR!D50), "",PCR!D50)</f>
         <v/>
       </c>
-      <c r="H41" s="44" t="str">
+      <c r="H41" s="33" t="str">
         <f>IF(ISBLANK(PCR!D58), "",PCR!D58)</f>
         <v/>
       </c>
-      <c r="I41" s="44" t="str">
+      <c r="I41" s="33" t="str">
         <f>IF(ISBLANK(PCR!D66), "",PCR!D66)</f>
         <v/>
       </c>
-      <c r="J41" s="44" t="str">
+      <c r="J41" s="33" t="str">
         <f>IF(ISBLANK(PCR!D74), "",PCR!D74)</f>
         <v/>
       </c>
-      <c r="K41" s="44" t="str">
+      <c r="K41" s="33" t="str">
         <f>IF(ISBLANK(PCR!D82), "",PCR!D82)</f>
         <v/>
       </c>
-      <c r="L41" s="44" t="str">
+      <c r="L41" s="33" t="str">
         <f>IF(ISBLANK(PCR!D90), "",PCR!D90)</f>
         <v/>
       </c>
-      <c r="M41" s="44" t="str">
+      <c r="M41" s="33" t="str">
         <f>IF(ISBLANK(PCR!D98), "",PCR!D98)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="70">
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:K17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A11:B11"/>
@@ -3587,63 +3857,19 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:K17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C4 C11 C14:C16 H19">
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>COUNTIF(C7,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3697,7 +3923,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3710,2464 +3936,2176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="104"/>
+      <c r="E1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="107"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="G2" s="31" t="s">
+      <c r="E2" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="62">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="45" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E9,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F3" s="32" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="36" t="str">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="25" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="27" t="str">
         <f t="shared" ref="I3:I67" si="0">IF(OR(G3="",H3=""),"",SUM(G3*H3))</f>
         <v/>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="62">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="45" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E10,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F4" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="4" t="str">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="62">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="45" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E11,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F5" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="4" t="str">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="62">
         <v>4</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="45" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E12,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F6" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="4" t="str">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="62">
         <v>5</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="45" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E13,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F7" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="4" t="str">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="32"/>
+      <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="62">
         <v>6</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="45" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E14,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F8" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="4" t="str">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="32"/>
+      <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="62">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="45" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E15,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F9" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="4" t="str">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J9" s="32"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="62">
         <v>8</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E16,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F10" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="4" t="str">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="32"/>
+      <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="62">
         <v>9</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E17,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F11" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4" t="str">
+      <c r="C11" s="36"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="32"/>
+      <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="62">
         <v>10</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E18,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F12" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4" t="str">
+      <c r="C12" s="36"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="32"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="62">
         <v>11</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E19,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F13" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4" t="str">
+      <c r="C13" s="36"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="32"/>
+      <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="62">
         <v>12</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E20,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F14" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4" t="str">
+      <c r="C14" s="36"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="32"/>
+      <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="62">
         <v>13</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E21,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F15" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4" t="str">
+      <c r="C15" s="36"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="32"/>
+      <c r="J15" s="57"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="62">
         <v>14</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E22,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F16" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4" t="str">
+      <c r="C16" s="36"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="32"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="62">
         <v>15</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E23,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F17" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4" t="str">
+      <c r="C17" s="36"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="32"/>
+      <c r="J17" s="57"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="62">
         <v>16</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E24,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F18" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4" t="str">
+      <c r="C18" s="36"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="32"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="62">
         <v>17</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E25,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F19" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4" t="str">
+      <c r="C19" s="36"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="32"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="62">
         <v>18</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E26,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F20" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4" t="str">
+      <c r="C20" s="36"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="32"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="62">
         <v>19</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E27,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F21" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4" t="str">
+      <c r="C21" s="36"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="32"/>
+      <c r="J21" s="57"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="A22" s="62">
         <v>20</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E28,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F22" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4" t="str">
+      <c r="C22" s="36"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="32"/>
+      <c r="J22" s="57"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="A23" s="62">
         <v>21</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E29,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F23" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4" t="str">
+      <c r="C23" s="36"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="32"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
+      <c r="A24" s="62">
         <v>22</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E30,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F24" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4" t="str">
+      <c r="C24" s="36"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="32"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="62">
         <v>23</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E31,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F25" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4" t="str">
+      <c r="C25" s="36"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="32"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+      <c r="A26" s="62">
         <v>24</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E32,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F26" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4" t="str">
+      <c r="C26" s="36"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="32"/>
+      <c r="J26" s="57"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="62">
         <v>25</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E33,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F27" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4" t="str">
+      <c r="C27" s="36"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J27" s="32"/>
+      <c r="J27" s="57"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="62">
         <v>26</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E34,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F28" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4" t="str">
+      <c r="C28" s="36"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J28" s="32"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="62">
         <v>27</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E35,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F29" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4" t="str">
+      <c r="C29" s="36"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="32"/>
+      <c r="J29" s="57"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="62">
         <v>28</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E36,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F30" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4" t="str">
+      <c r="C30" s="36"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="32"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="62">
         <v>29</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E37,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F31" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4" t="str">
+      <c r="C31" s="36"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J31" s="32"/>
+      <c r="J31" s="57"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+      <c r="A32" s="62">
         <v>30</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E38,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F32" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4" t="str">
+      <c r="C32" s="36"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J32" s="32"/>
+      <c r="J32" s="57"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="A33" s="62">
         <v>31</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E39,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F33" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="4" t="str">
+      <c r="C33" s="36"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J33" s="32"/>
+      <c r="J33" s="57"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
+      <c r="A34" s="62">
         <v>32</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E40,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F34" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="4" t="str">
+      <c r="C34" s="36"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J34" s="32"/>
+      <c r="J34" s="57"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
+      <c r="A35" s="62">
         <v>33</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E41,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F35" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4" t="str">
+      <c r="C35" s="36"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J35" s="32"/>
+      <c r="J35" s="57"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
+      <c r="A36" s="62">
         <v>34</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E42,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F36" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="4" t="str">
+      <c r="C36" s="36"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="32"/>
+      <c r="J36" s="57"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
+      <c r="A37" s="62">
         <v>35</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E43,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F37" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4" t="str">
+      <c r="C37" s="36"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J37" s="32"/>
+      <c r="J37" s="57"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
+      <c r="A38" s="62">
         <v>36</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E44,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F38" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4" t="str">
+      <c r="C38" s="36"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J38" s="32"/>
+      <c r="J38" s="57"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="A39" s="62">
         <v>37</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E45,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F39" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4" t="str">
+      <c r="C39" s="36"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J39" s="32"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23">
+      <c r="A40" s="62">
         <v>38</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E46,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F40" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4" t="str">
+      <c r="C40" s="36"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J40" s="32"/>
+      <c r="J40" s="57"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
+      <c r="A41" s="62">
         <v>39</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E47,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F41" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="4" t="str">
+      <c r="C41" s="36"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J41" s="32"/>
+      <c r="J41" s="57"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
+      <c r="A42" s="62">
         <v>40</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E48,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F42" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4" t="str">
+      <c r="C42" s="36"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J42" s="32"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
+      <c r="A43" s="62">
         <v>41</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E49,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F43" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4" t="str">
+      <c r="C43" s="36"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J43" s="32"/>
+      <c r="J43" s="57"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
+      <c r="A44" s="62">
         <v>42</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E50,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F44" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4" t="str">
+      <c r="C44" s="36"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J44" s="32"/>
+      <c r="J44" s="57"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
+      <c r="A45" s="62">
         <v>43</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E51,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F45" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="4" t="str">
+      <c r="C45" s="36"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J45" s="32"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
+      <c r="A46" s="62">
         <v>44</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E52,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F46" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4" t="str">
+      <c r="C46" s="36"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J46" s="32"/>
+      <c r="J46" s="57"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
+      <c r="A47" s="62">
         <v>45</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E53,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F47" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="4" t="str">
+      <c r="C47" s="36"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J47" s="32"/>
+      <c r="J47" s="57"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23">
+      <c r="A48" s="62">
         <v>46</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E54,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F48" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="4" t="str">
+      <c r="C48" s="36"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J48" s="32"/>
+      <c r="J48" s="57"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23">
+      <c r="A49" s="62">
         <v>47</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E55,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F49" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="4" t="str">
+      <c r="C49" s="36"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J49" s="32"/>
+      <c r="J49" s="57"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23">
+      <c r="A50" s="62">
         <v>48</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E56,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F50" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="4" t="str">
+      <c r="C50" s="36"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J50" s="32"/>
+      <c r="J50" s="57"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
+      <c r="A51" s="62">
         <v>49</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E57,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F51" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="4" t="str">
+      <c r="C51" s="36"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J51" s="32"/>
+      <c r="J51" s="57"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
+      <c r="A52" s="62">
         <v>50</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E58,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F52" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="4" t="str">
+      <c r="C52" s="36"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J52" s="32"/>
+      <c r="J52" s="57"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
+      <c r="A53" s="62">
         <v>51</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E59,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F53" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="4" t="str">
+      <c r="C53" s="36"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J53" s="32"/>
+      <c r="J53" s="57"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23">
+      <c r="A54" s="62">
         <v>52</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E60,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F54" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="4" t="str">
+      <c r="C54" s="36"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J54" s="32"/>
+      <c r="J54" s="57"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23">
+      <c r="A55" s="62">
         <v>53</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E61,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F55" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="4" t="str">
+      <c r="C55" s="36"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J55" s="32"/>
+      <c r="J55" s="57"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23">
+      <c r="A56" s="62">
         <v>54</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E62,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F56" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="4" t="str">
+      <c r="C56" s="36"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J56" s="32"/>
+      <c r="J56" s="57"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23">
+      <c r="A57" s="62">
         <v>55</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E63,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F57" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="4" t="str">
+      <c r="C57" s="36"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J57" s="32"/>
+      <c r="J57" s="57"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23">
+      <c r="A58" s="62">
         <v>56</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E64,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F58" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="4" t="str">
+      <c r="C58" s="36"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J58" s="32"/>
+      <c r="J58" s="57"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23">
+      <c r="A59" s="62">
         <v>57</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E65,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F59" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="4" t="str">
+      <c r="C59" s="36"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J59" s="32"/>
+      <c r="J59" s="57"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
+      <c r="A60" s="62">
         <v>58</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E66,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F60" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="4" t="str">
+      <c r="C60" s="36"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J60" s="32"/>
+      <c r="J60" s="57"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
+      <c r="A61" s="62">
         <v>59</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E67,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F61" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="4" t="str">
+      <c r="C61" s="36"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J61" s="32"/>
+      <c r="J61" s="57"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23">
+      <c r="A62" s="62">
         <v>60</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="49"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E68,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F62" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="4" t="str">
+      <c r="C62" s="36"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J62" s="32"/>
+      <c r="J62" s="57"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23">
+      <c r="A63" s="62">
         <v>61</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E69,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F63" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="4" t="str">
+      <c r="C63" s="36"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J63" s="32"/>
+      <c r="J63" s="57"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
+      <c r="A64" s="62">
         <v>62</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E70,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F64" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="4" t="str">
+      <c r="C64" s="36"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J64" s="32"/>
+      <c r="J64" s="57"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23">
+      <c r="A65" s="62">
         <v>63</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E71,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F65" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="4" t="str">
+      <c r="C65" s="36"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J65" s="32"/>
+      <c r="J65" s="57"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
+      <c r="A66" s="62">
         <v>64</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E72,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F66" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="4" t="str">
+      <c r="C66" s="36"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J66" s="32"/>
+      <c r="J66" s="57"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23">
+      <c r="A67" s="62">
         <v>65</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E73,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F67" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="4" t="str">
+      <c r="C67" s="36"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J67" s="32"/>
+      <c r="J67" s="57"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23">
+      <c r="A68" s="62">
         <v>66</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="49"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E74,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F68" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="4" t="str">
+      <c r="C68" s="36"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="3" t="str">
         <f t="shared" ref="I68:I98" si="1">IF(OR(G68="",H68=""),"",SUM(G68*H68))</f>
         <v/>
       </c>
-      <c r="J68" s="32"/>
+      <c r="J68" s="57"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
+      <c r="A69" s="62">
         <v>67</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E75,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F69" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="4" t="str">
+      <c r="C69" s="36"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J69" s="32"/>
+      <c r="J69" s="57"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
+      <c r="A70" s="62">
         <v>68</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E76,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F70" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="4" t="str">
+      <c r="C70" s="36"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J70" s="32"/>
+      <c r="J70" s="57"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
+      <c r="A71" s="62">
         <v>69</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E77,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F71" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="4" t="str">
+      <c r="C71" s="36"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J71" s="32"/>
+      <c r="J71" s="57"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23">
+      <c r="A72" s="62">
         <v>70</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="49"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E78,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F72" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="4" t="str">
+      <c r="C72" s="36"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J72" s="32"/>
+      <c r="J72" s="57"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
+      <c r="A73" s="62">
         <v>71</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E79,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F73" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="4" t="str">
+      <c r="C73" s="36"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J73" s="32"/>
+      <c r="J73" s="57"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23">
+      <c r="A74" s="62">
         <v>72</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="49"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E80,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F74" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="4" t="str">
+      <c r="C74" s="36"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J74" s="32"/>
+      <c r="J74" s="57"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23">
+      <c r="A75" s="62">
         <v>73</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="49"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E81,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F75" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="4" t="str">
+      <c r="C75" s="36"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J75" s="32"/>
+      <c r="J75" s="57"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
+      <c r="A76" s="62">
         <v>74</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="49"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E82,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F76" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="4" t="str">
+      <c r="C76" s="36"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J76" s="32"/>
+      <c r="J76" s="57"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
+      <c r="A77" s="62">
         <v>75</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="49"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E83,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F77" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="4" t="str">
+      <c r="C77" s="36"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J77" s="32"/>
+      <c r="J77" s="57"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23">
+      <c r="A78" s="62">
         <v>76</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E84,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F78" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="4" t="str">
+      <c r="C78" s="36"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J78" s="32"/>
+      <c r="J78" s="57"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23">
+      <c r="A79" s="62">
         <v>77</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C79" s="49"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E85,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F79" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="4" t="str">
+      <c r="C79" s="36"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J79" s="32"/>
+      <c r="J79" s="57"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23">
+      <c r="A80" s="62">
         <v>78</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="49"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E86,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F80" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="4" t="str">
+      <c r="C80" s="36"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J80" s="32"/>
+      <c r="J80" s="57"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="23">
+      <c r="A81" s="62">
         <v>79</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="49"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E87,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F81" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="4" t="str">
+      <c r="C81" s="36"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J81" s="32"/>
+      <c r="J81" s="57"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
+      <c r="A82" s="62">
         <v>80</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="C82" s="49"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E88,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F82" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="4" t="str">
+      <c r="C82" s="36"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J82" s="32"/>
+      <c r="J82" s="57"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23">
+      <c r="A83" s="62">
         <v>81</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="49"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E89,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F83" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="4" t="str">
+      <c r="C83" s="36"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J83" s="32"/>
+      <c r="J83" s="57"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23">
+      <c r="A84" s="62">
         <v>82</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E90,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F84" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="4" t="str">
+      <c r="C84" s="36"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J84" s="32"/>
+      <c r="J84" s="57"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="23">
+      <c r="A85" s="62">
         <v>83</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E91,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F85" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="4" t="str">
+      <c r="C85" s="36"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J85" s="32"/>
+      <c r="J85" s="57"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="23">
+      <c r="A86" s="62">
         <v>84</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E92,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F86" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="4" t="str">
+      <c r="C86" s="36"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J86" s="32"/>
+      <c r="J86" s="57"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="23">
+      <c r="A87" s="62">
         <v>85</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="C87" s="49"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E93,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F87" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="4" t="str">
+      <c r="C87" s="36"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J87" s="32"/>
+      <c r="J87" s="57"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="23">
+      <c r="A88" s="62">
         <v>86</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="C88" s="49"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E94,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F88" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="4" t="str">
+      <c r="C88" s="36"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J88" s="32"/>
+      <c r="J88" s="57"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23">
+      <c r="A89" s="62">
         <v>87</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="49"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E95,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F89" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="4" t="str">
+      <c r="C89" s="36"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J89" s="32"/>
+      <c r="J89" s="57"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="23">
+      <c r="A90" s="62">
         <v>88</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="49"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E96,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F90" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="4" t="str">
+      <c r="C90" s="36"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J90" s="32"/>
+      <c r="J90" s="57"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="23">
+      <c r="A91" s="62">
         <v>89</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="49"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E97,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F91" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="4" t="str">
+      <c r="C91" s="36"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J91" s="32"/>
+      <c r="J91" s="57"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="23">
+      <c r="A92" s="62">
         <v>90</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="C92" s="49"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E98,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F92" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="4" t="str">
+      <c r="C92" s="36"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J92" s="32"/>
+      <c r="J92" s="57"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="23">
+      <c r="A93" s="62">
         <v>91</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E99,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F93" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="4" t="str">
+      <c r="C93" s="36"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J93" s="32"/>
+      <c r="J93" s="57"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="23">
+      <c r="A94" s="62">
         <v>92</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E100,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F94" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="4" t="str">
+      <c r="C94" s="36"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J94" s="32"/>
+      <c r="J94" s="57"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="23">
+      <c r="A95" s="62">
         <v>93</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E101,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F95" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="4" t="str">
+      <c r="C95" s="36"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J95" s="32"/>
+      <c r="J95" s="57"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23">
+      <c r="A96" s="62">
         <v>94</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B96" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="C96" s="49"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E102,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F96" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="4" t="str">
+      <c r="C96" s="36"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J96" s="32"/>
+      <c r="J96" s="57"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23">
+      <c r="A97" s="62">
         <v>95</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="50" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E103,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F97" s="16" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="4" t="str">
+      <c r="C97" s="36"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="15" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J97" s="32"/>
+      <c r="J97" s="57"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="24">
+      <c r="A98" s="64">
         <v>96</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C98" s="49"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="51" t="str">
-        <f>IF(AND(pcr_dna_source=reference!E104,LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0),"No sWGA","")</f>
-        <v/>
-      </c>
-      <c r="F98" s="26" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="27" t="str">
+      <c r="C98" s="36"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="22" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G98" s="56"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J98" s="32"/>
-    </row>
-    <row r="99" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19">
+      <c r="J98" s="57"/>
+    </row>
+    <row r="99" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18">
         <v>1</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="18">
         <v>1</v>
       </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
@@ -6254,18 +6192,19 @@
       <c r="F111" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:J1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C3:C98">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text=" ">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text=" ">
       <formula>NOT(ISERROR(SEARCH(" ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E98 G3:H98 J3:J98">
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>COUNTIF(C3,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6306,7 +6245,7 @@
         <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6318,128 +6257,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DEA7B0-D4D5-4D95-A9F1-1EE467C8E8C1}">
-  <sheetPr codeName="Sheet4">
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="13" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C822BC-EB65-47E0-AF90-9D941680FB8A}">
   <sheetPr codeName="Sheet5">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6453,164 +6278,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="M1" s="6" t="s">
+      <c r="F1" s="4"/>
+      <c r="M1" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="E2" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="E3" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="N3" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+      <c r="E4" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="P4" s="61" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="E2" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="N2" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="P2" s="53" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C3" s="7"/>
-      <c r="E3" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="N3" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="P3" s="54" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D4" s="7"/>
-      <c r="E4" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="M4" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="N4" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="P4" s="54" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="M5" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="N5" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="P5" s="54" t="s">
-        <v>257</v>
+      <c r="M5" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="55" t="s">
-        <v>227</v>
+      <c r="M6" s="39" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="G7" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="I7" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="J7" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="H8">
         <v>0.3</v>
@@ -6624,22 +6449,22 @@
       <c r="K8">
         <v>1.5</v>
       </c>
-      <c r="M8" s="55" t="s">
-        <v>228</v>
+      <c r="M8" s="39" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>239</v>
+      <c r="A9" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="H9">
         <v>14.5</v>
@@ -6653,36 +6478,30 @@
       <c r="K9">
         <v>1.5</v>
       </c>
-      <c r="M9" s="55" t="s">
-        <v>229</v>
+      <c r="M9" s="39" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>240</v>
-      </c>
-      <c r="M10" s="55" t="s">
-        <v>230</v>
+        <v>258</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>243</v>
-      </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>254</v>
-      </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6690,6 +6509,229 @@
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DEA7B0-D4D5-4D95-A9F1-1EE467C8E8C1}">
+  <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.875" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A2" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A4" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A5" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+    </row>
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="44"/>
+    </row>
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="44"/>
+    </row>
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A8" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="44"/>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A9" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="44"/>
+    </row>
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A10" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="44"/>
+    </row>
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A11" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="44"/>
+    </row>
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A12" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="44"/>
+    </row>
+    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+    </row>
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A14" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+    </row>
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A15" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+    </row>
+    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A16" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+    </row>
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A17" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+    </row>
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A18" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+    </row>
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A19" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+    </row>
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A20" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A21" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+    </row>
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A22" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+    </row>
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A23" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A24" s="51"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+    </row>
+    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A25" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+    </row>
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A26" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+    </row>
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A27" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6701,7 +6743,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6716,100 +6758,101 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" t="s">
         <v>177</v>
       </c>
-      <c r="F1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L1" t="s">
-        <v>180</v>
-      </c>
       <c r="M1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>exp_id</f>
-        <v/>
-      </c>
-      <c r="B2">
-        <f>exp_date</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>exp_user</f>
-        <v>0</v>
+        <f>IF(LEN(exp_id)=0,"",exp_id)</f>
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <f>IF(LEN(exp_date)=0,"",exp_date)</f>
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(LEN(exp_user)=0,"",exp_user)</f>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <f>exp_type</f>
+        <f>IF(LEN(exp_type)=0,"",exp_type)</f>
         <v>PCR</v>
       </c>
       <c r="E2">
-        <f>exp_version</f>
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <f>exp_assay</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>exp_notes</f>
-        <v>0</v>
+        <f>IF(LEN(exp_version)=0,"",exp_version)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(LEN(exp_assay)=0,"",exp_assay)</f>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(LEN(exp_notes)=0,"",exp_notes)</f>
+        <v/>
       </c>
       <c r="H2" t="str">
-        <f>exp_summary</f>
-        <v/>
-      </c>
-      <c r="I2">
-        <f>exp_rxns</f>
-        <v>0</v>
+        <f>IF(LEN(exp_summary)=0,"",exp_summary)</f>
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(LEN(exp_rxns)=0,"",exp_rxns)</f>
+        <v/>
       </c>
       <c r="J2" t="str">
-        <f>pcr_primers</f>
-        <v/>
-      </c>
-      <c r="K2">
-        <f>pcr_primersource</f>
-        <v>0</v>
+        <f>IF(LEN(pcr_primers)=0,"",pcr_primers)</f>
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(LEN(pcr_primersource)=0,"",pcr_primersource)</f>
+        <v/>
       </c>
       <c r="L2" t="str">
-        <f>pcr_targetpanel</f>
-        <v/>
-      </c>
-      <c r="M2">
-        <f>pcr_enzyme</f>
-        <v>0</v>
+        <f>IF(LEN(pcr_targetpanel)=0,"",pcr_targetpanel)</f>
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(pcr_enzyme=0,"",pcr_enzyme)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6826,7 +6869,7 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6839,22 +6882,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9354,6 +9397,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
